--- a/data/working.origin.model.formulas.xlsx
+++ b/data/working.origin.model.formulas.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santorui/Documents/GitHub/FinlandAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A669A-8FE2-184C-B47E-266B2ADB96BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBFD5E2-91C6-5447-BF5F-BDA36D171F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="540" windowWidth="51200" windowHeight="26840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aic.models2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="439">
   <si>
     <t>V1</t>
   </si>
@@ -183,18 +184,6 @@
     <t>FAlphaNat</t>
   </si>
   <si>
-    <t>0.468554</t>
-  </si>
-  <si>
-    <t>-0.9340902</t>
-  </si>
-  <si>
-    <t>9.279945</t>
-  </si>
-  <si>
-    <t>0.534838055</t>
-  </si>
-  <si>
     <t>FAlphaNInd</t>
   </si>
   <si>
@@ -210,9 +199,6 @@
     <t>prop.Talpha</t>
   </si>
   <si>
-    <t>1.708011</t>
-  </si>
-  <si>
     <t>25.2288</t>
   </si>
   <si>
@@ -222,12 +208,6 @@
     <t>0.34102145</t>
   </si>
   <si>
-    <t>1.566253</t>
-  </si>
-  <si>
-    <t>0.463315</t>
-  </si>
-  <si>
     <t>26.63058</t>
   </si>
   <si>
@@ -243,42 +223,9 @@
     <t>prop.Falpha</t>
   </si>
   <si>
-    <t>-0.1658975</t>
-  </si>
-  <si>
-    <t>28.27434</t>
-  </si>
-  <si>
-    <t>-49.13692</t>
-  </si>
-  <si>
-    <t>0.479986625</t>
-  </si>
-  <si>
-    <t>-0.218515</t>
-  </si>
-  <si>
-    <t>0.07237669</t>
-  </si>
-  <si>
-    <t>28.82702</t>
-  </si>
-  <si>
-    <t>-47.15403</t>
-  </si>
-  <si>
-    <t>1.982891</t>
-  </si>
-  <si>
-    <t>0.178094185</t>
-  </si>
-  <si>
     <t>prop.abund</t>
   </si>
   <si>
-    <t>2.658673</t>
-  </si>
-  <si>
     <t>42.2116</t>
   </si>
   <si>
@@ -291,609 +238,57 @@
     <t>all.tax.btotal</t>
   </si>
   <si>
-    <t>-0.8334242</t>
-  </si>
-  <si>
-    <t>-1.25462</t>
-  </si>
-  <si>
-    <t>20.94445</t>
-  </si>
-  <si>
-    <t>-31.3889</t>
-  </si>
-  <si>
-    <t>0.44235574</t>
-  </si>
-  <si>
-    <t>-1.2502003</t>
-  </si>
-  <si>
-    <t>1.13215217</t>
-  </si>
-  <si>
-    <t>-1.704417</t>
-  </si>
-  <si>
-    <t>22.58451</t>
-  </si>
-  <si>
-    <t>-31.16903</t>
-  </si>
-  <si>
-    <t>0.2198738</t>
-  </si>
-  <si>
-    <t>0.39630237</t>
-  </si>
-  <si>
     <t>all.tax.brich</t>
   </si>
   <si>
-    <t>-2.424263</t>
-  </si>
-  <si>
-    <t>-1.449686</t>
-  </si>
-  <si>
-    <t>43.59875</t>
-  </si>
-  <si>
-    <t>-76.69751</t>
-  </si>
-  <si>
-    <t>0.5188473974</t>
-  </si>
-  <si>
-    <t>-2.713243</t>
-  </si>
-  <si>
-    <t>0.8819449</t>
-  </si>
-  <si>
-    <t>-1.644327</t>
-  </si>
-  <si>
-    <t>44.89071</t>
-  </si>
-  <si>
-    <t>-75.78142</t>
-  </si>
-  <si>
-    <t>0.91609</t>
-  </si>
-  <si>
-    <t>0.328180844</t>
-  </si>
-  <si>
     <t>all.tax.brepl</t>
   </si>
   <si>
-    <t>-1.231276</t>
-  </si>
-  <si>
-    <t>-0.695407</t>
-  </si>
-  <si>
-    <t>27.69911</t>
-  </si>
-  <si>
-    <t>-44.89823</t>
-  </si>
-  <si>
-    <t>0.40362654</t>
-  </si>
-  <si>
-    <t>-1.467427</t>
-  </si>
-  <si>
-    <t>0.6401616</t>
-  </si>
-  <si>
-    <t>-0.9475322</t>
-  </si>
-  <si>
-    <t>29.08488</t>
-  </si>
-  <si>
-    <t>-44.16975</t>
-  </si>
-  <si>
-    <t>0.7284748</t>
-  </si>
-  <si>
-    <t>0.28040995</t>
-  </si>
-  <si>
     <t>nat.tax.btotal</t>
   </si>
   <si>
-    <t>-1.0375725</t>
-  </si>
-  <si>
-    <t>-1.26456</t>
-  </si>
-  <si>
-    <t>22.71965</t>
-  </si>
-  <si>
-    <t>-34.9393</t>
-  </si>
-  <si>
-    <t>0.44415343</t>
-  </si>
-  <si>
-    <t>-1.4309742</t>
-  </si>
-  <si>
-    <t>1.07269766</t>
-  </si>
-  <si>
-    <t>-1.662383</t>
-  </si>
-  <si>
-    <t>24.36543</t>
-  </si>
-  <si>
-    <t>-34.73086</t>
-  </si>
-  <si>
-    <t>0.2084392</t>
-  </si>
-  <si>
-    <t>0.400194419</t>
-  </si>
-  <si>
     <t>nat.tax.brich</t>
   </si>
   <si>
-    <t>-2.635806</t>
-  </si>
-  <si>
-    <t>70.91504</t>
-  </si>
-  <si>
-    <t>-134.4183</t>
-  </si>
-  <si>
-    <t>0.491235829</t>
-  </si>
-  <si>
     <t>nat.tax.brepl</t>
   </si>
   <si>
-    <t>-1.258657</t>
-  </si>
-  <si>
-    <t>-0.7198346</t>
-  </si>
-  <si>
-    <t>27.99135</t>
-  </si>
-  <si>
-    <t>-45.48269</t>
-  </si>
-  <si>
-    <t>0.39759813</t>
-  </si>
-  <si>
-    <t>-1.557135</t>
-  </si>
-  <si>
-    <t>0.75907199</t>
-  </si>
-  <si>
-    <t>-1.0585628</t>
-  </si>
-  <si>
-    <t>29.42285</t>
-  </si>
-  <si>
-    <t>-44.84569</t>
-  </si>
-  <si>
-    <t>0.637001</t>
-  </si>
-  <si>
-    <t>0.28914875</t>
-  </si>
-  <si>
     <t>nind.tax.btotal</t>
   </si>
   <si>
-    <t>-0.03587389</t>
-  </si>
-  <si>
-    <t>0.9071329</t>
-  </si>
-  <si>
-    <t>-0.9786041</t>
-  </si>
-  <si>
-    <t>81.69504</t>
-  </si>
-  <si>
-    <t>-149.3901</t>
-  </si>
-  <si>
-    <t>0.27828544</t>
-  </si>
-  <si>
-    <t>0.14332121</t>
-  </si>
-  <si>
-    <t>78.26076</t>
-  </si>
-  <si>
-    <t>-149.1098</t>
-  </si>
-  <si>
-    <t>0.280323</t>
-  </si>
-  <si>
-    <t>0.24189067</t>
-  </si>
-  <si>
-    <t>0.38822154</t>
-  </si>
-  <si>
-    <t>-0.5427668</t>
-  </si>
-  <si>
-    <t>79.61446</t>
-  </si>
-  <si>
-    <t>-148.7289</t>
-  </si>
-  <si>
-    <t>0.6611732</t>
-  </si>
-  <si>
-    <t>0.19994869</t>
-  </si>
-  <si>
     <t>nind.tax.brich</t>
   </si>
   <si>
-    <t>-0.69085873</t>
-  </si>
-  <si>
-    <t>1.4233102</t>
-  </si>
-  <si>
-    <t>-1.0907001</t>
-  </si>
-  <si>
-    <t>82.8818</t>
-  </si>
-  <si>
-    <t>-151.7636</t>
-  </si>
-  <si>
-    <t>0.56738257</t>
-  </si>
-  <si>
     <t>nind.tax.brepl</t>
   </si>
   <si>
-    <t>-1.861776</t>
-  </si>
-  <si>
-    <t>80.99652</t>
-  </si>
-  <si>
-    <t>-154.5813</t>
-  </si>
-  <si>
-    <t>0.458763465</t>
-  </si>
-  <si>
-    <t>-1.630046</t>
-  </si>
-  <si>
-    <t>-0.3985315</t>
-  </si>
-  <si>
-    <t>81.79536</t>
-  </si>
-  <si>
-    <t>-153.0907</t>
-  </si>
-  <si>
-    <t>1.490567</t>
-  </si>
-  <si>
-    <t>0.217729011</t>
-  </si>
-  <si>
     <t>all.func.btotal</t>
   </si>
   <si>
-    <t>-0.8169059</t>
-  </si>
-  <si>
-    <t>-1.169148</t>
-  </si>
-  <si>
-    <t>20.72459</t>
-  </si>
-  <si>
-    <t>-30.94919</t>
-  </si>
-  <si>
-    <t>0.416130431</t>
-  </si>
-  <si>
-    <t>-1.2038469</t>
-  </si>
-  <si>
-    <t>1.0579774</t>
-  </si>
-  <si>
-    <t>-1.595509</t>
-  </si>
-  <si>
-    <t>22.45734</t>
-  </si>
-  <si>
-    <t>-30.91468</t>
-  </si>
-  <si>
-    <t>0.03451069</t>
-  </si>
-  <si>
-    <t>0.409011553</t>
-  </si>
-  <si>
     <t>all.func.brich</t>
   </si>
   <si>
-    <t>-1.463574</t>
-  </si>
-  <si>
-    <t>-0.647031</t>
-  </si>
-  <si>
-    <t>30.89365</t>
-  </si>
-  <si>
-    <t>-51.2873</t>
-  </si>
-  <si>
-    <t>0.43686308</t>
-  </si>
-  <si>
-    <t>-1.731673</t>
-  </si>
-  <si>
-    <t>0.5463385</t>
-  </si>
-  <si>
-    <t>-0.9422419</t>
-  </si>
-  <si>
-    <t>32.19505</t>
-  </si>
-  <si>
-    <t>-50.3901</t>
-  </si>
-  <si>
-    <t>0.8972019</t>
-  </si>
-  <si>
-    <t>0.278946181</t>
-  </si>
-  <si>
     <t>all.func.brepl</t>
   </si>
   <si>
-    <t>-1.745228</t>
-  </si>
-  <si>
-    <t>-1.335185</t>
-  </si>
-  <si>
-    <t>31.62687</t>
-  </si>
-  <si>
-    <t>-52.75373</t>
-  </si>
-  <si>
-    <t>0.5907941448</t>
-  </si>
-  <si>
-    <t>-1.969412</t>
-  </si>
-  <si>
-    <t>0.7494496</t>
-  </si>
-  <si>
-    <t>-1.503345</t>
-  </si>
-  <si>
-    <t>32.54037</t>
-  </si>
-  <si>
-    <t>-51.08074</t>
-  </si>
-  <si>
-    <t>1.672995</t>
-  </si>
-  <si>
-    <t>0.2559469353</t>
-  </si>
-  <si>
     <t>nat.func.btotal</t>
   </si>
   <si>
-    <t>-0.7554771</t>
-  </si>
-  <si>
-    <t>-1.145464</t>
-  </si>
-  <si>
-    <t>20.22098</t>
-  </si>
-  <si>
-    <t>-29.94195</t>
-  </si>
-  <si>
-    <t>0.479325737</t>
-  </si>
-  <si>
-    <t>-1.0995892</t>
-  </si>
-  <si>
-    <t>0.94758735</t>
-  </si>
-  <si>
-    <t>-1.523456</t>
-  </si>
-  <si>
-    <t>21.64889</t>
-  </si>
-  <si>
-    <t>-29.29778</t>
-  </si>
-  <si>
-    <t>0.6441683</t>
-  </si>
-  <si>
-    <t>0.347337256</t>
-  </si>
-  <si>
     <t>nat.func.brich</t>
   </si>
   <si>
-    <t>-1.515633</t>
-  </si>
-  <si>
-    <t>-0.5725477</t>
-  </si>
-  <si>
-    <t>32.30631</t>
-  </si>
-  <si>
-    <t>-54.11263</t>
-  </si>
-  <si>
-    <t>0.40606996</t>
-  </si>
-  <si>
-    <t>-1.786842</t>
-  </si>
-  <si>
-    <t>0.549681</t>
-  </si>
-  <si>
-    <t>-0.8649984</t>
-  </si>
-  <si>
-    <t>33.55597</t>
-  </si>
-  <si>
-    <t>-53.11194</t>
-  </si>
-  <si>
-    <t>1.000689</t>
-  </si>
-  <si>
-    <t>0.24620906</t>
-  </si>
-  <si>
     <t>nat.func.brepl</t>
   </si>
   <si>
-    <t>-1.598554</t>
-  </si>
-  <si>
-    <t>-1.307506</t>
-  </si>
-  <si>
-    <t>30.43283</t>
-  </si>
-  <si>
-    <t>-50.36565</t>
-  </si>
-  <si>
-    <t>0.6673480394</t>
-  </si>
-  <si>
     <t>nind.func.btotal</t>
   </si>
   <si>
-    <t>-0.224377632</t>
-  </si>
-  <si>
-    <t>1.1156518</t>
-  </si>
-  <si>
-    <t>-1.0829244</t>
-  </si>
-  <si>
-    <t>73.18735</t>
-  </si>
-  <si>
-    <t>-132.3747</t>
-  </si>
-  <si>
-    <t>0.46179047</t>
-  </si>
-  <si>
     <t>nind.func.brich</t>
   </si>
   <si>
-    <t>-0.32881767</t>
-  </si>
-  <si>
-    <t>1.2140736</t>
-  </si>
-  <si>
-    <t>-1.1192934</t>
-  </si>
-  <si>
-    <t>71.63662</t>
-  </si>
-  <si>
-    <t>-129.2732</t>
-  </si>
-  <si>
-    <t>0.53736466</t>
-  </si>
-  <si>
     <t>nind.func.brepl</t>
   </si>
   <si>
-    <t>-2.999534</t>
-  </si>
-  <si>
-    <t>89.34124</t>
-  </si>
-  <si>
-    <t>-171.2707</t>
-  </si>
-  <si>
-    <t>0.449070612</t>
-  </si>
-  <si>
-    <t>-2.79562</t>
-  </si>
-  <si>
-    <t>-0.3790696</t>
-  </si>
-  <si>
-    <t>90.18179</t>
-  </si>
-  <si>
-    <t>-169.8636</t>
-  </si>
-  <si>
-    <t>1.407134</t>
-  </si>
-  <si>
-    <t>0.222207883</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ~ </t>
   </si>
   <si>
@@ -1191,18 +586,6 @@
     <t>"nbinom1"</t>
   </si>
   <si>
-    <t>1.310766</t>
-  </si>
-  <si>
-    <t>-6.902574</t>
-  </si>
-  <si>
-    <t>21.21691</t>
-  </si>
-  <si>
-    <t>0.55628249</t>
-  </si>
-  <si>
     <t>4.888916</t>
   </si>
   <si>
@@ -1257,13 +640,706 @@
     <t>0.528667122</t>
   </si>
   <si>
-    <t>0.46996</t>
-  </si>
-  <si>
-    <t>-54.915</t>
-  </si>
-  <si>
-    <t>114.5</t>
+    <t>TAlphaEnd</t>
+  </si>
+  <si>
+    <t>1.726162</t>
+  </si>
+  <si>
+    <t>-40.28746</t>
+  </si>
+  <si>
+    <t>85.24158</t>
+  </si>
+  <si>
+    <t>0.48231817</t>
+  </si>
+  <si>
+    <t>0.2476683</t>
+  </si>
+  <si>
+    <t>-20.21409</t>
+  </si>
+  <si>
+    <t>47.83994</t>
+  </si>
+  <si>
+    <t>0.514898269</t>
+  </si>
+  <si>
+    <t>0.904744</t>
+  </si>
+  <si>
+    <t>-13.20362</t>
+  </si>
+  <si>
+    <t>33.819</t>
+  </si>
+  <si>
+    <t>0.539262185</t>
+  </si>
+  <si>
+    <t>FAlphaEnd</t>
+  </si>
+  <si>
+    <t>0.3769302</t>
+  </si>
+  <si>
+    <t>-17.74105</t>
+  </si>
+  <si>
+    <t>42.89387</t>
+  </si>
+  <si>
+    <t>0.485730881</t>
+  </si>
+  <si>
+    <t>abund.end</t>
+  </si>
+  <si>
+    <t>4.621231</t>
+  </si>
+  <si>
+    <t>-103.1162</t>
+  </si>
+  <si>
+    <t>213.6441</t>
+  </si>
+  <si>
+    <t>0.542088181</t>
+  </si>
+  <si>
+    <t>-1.708011</t>
+  </si>
+  <si>
+    <t>-1.566253</t>
+  </si>
+  <si>
+    <t>-0.463315</t>
+  </si>
+  <si>
+    <t>2.029179</t>
+  </si>
+  <si>
+    <t>30.27015</t>
+  </si>
+  <si>
+    <t>-53.12853</t>
+  </si>
+  <si>
+    <t>0.416053419</t>
+  </si>
+  <si>
+    <t>1.908611</t>
+  </si>
+  <si>
+    <t>0.3820671</t>
+  </si>
+  <si>
+    <t>31.25927</t>
+  </si>
+  <si>
+    <t>-52.01853</t>
+  </si>
+  <si>
+    <t>1.109996</t>
+  </si>
+  <si>
+    <t>0.238845214</t>
+  </si>
+  <si>
+    <t>-2.658673</t>
+  </si>
+  <si>
+    <t>prop.end</t>
+  </si>
+  <si>
+    <t>1.178862</t>
+  </si>
+  <si>
+    <t>19.27719</t>
+  </si>
+  <si>
+    <t>-31.14262</t>
+  </si>
+  <si>
+    <t>0.497594719</t>
+  </si>
+  <si>
+    <t>-1.84679</t>
+  </si>
+  <si>
+    <t>16.81195</t>
+  </si>
+  <si>
+    <t>-25.6239</t>
+  </si>
+  <si>
+    <t>0.577463886</t>
+  </si>
+  <si>
+    <t>-0.7989747</t>
+  </si>
+  <si>
+    <t>5.686936</t>
+  </si>
+  <si>
+    <t>-3.3738726</t>
+  </si>
+  <si>
+    <t>0.586932155</t>
+  </si>
+  <si>
+    <t>-0.2960353</t>
+  </si>
+  <si>
+    <t>20.84388</t>
+  </si>
+  <si>
+    <t>-33.68776</t>
+  </si>
+  <si>
+    <t>0.518207644</t>
+  </si>
+  <si>
+    <t>-2.308694</t>
+  </si>
+  <si>
+    <t>29.93879</t>
+  </si>
+  <si>
+    <t>-51.87758</t>
+  </si>
+  <si>
+    <t>0.611347753</t>
+  </si>
+  <si>
+    <t>-0.805879</t>
+  </si>
+  <si>
+    <t>5.047622</t>
+  </si>
+  <si>
+    <t>-2.0952442</t>
+  </si>
+  <si>
+    <t>0.568605412</t>
+  </si>
+  <si>
+    <t>0.75955561</t>
+  </si>
+  <si>
+    <t>33.12283</t>
+  </si>
+  <si>
+    <t>-58.24566</t>
+  </si>
+  <si>
+    <t>0.404690708</t>
+  </si>
+  <si>
+    <t>0.29303948</t>
+  </si>
+  <si>
+    <t>0.8619128</t>
+  </si>
+  <si>
+    <t>34.77666</t>
+  </si>
+  <si>
+    <t>-57.91695</t>
+  </si>
+  <si>
+    <t>0.3287079</t>
+  </si>
+  <si>
+    <t>0.343356449</t>
+  </si>
+  <si>
+    <t>-0.73264679</t>
+  </si>
+  <si>
+    <t>1.689154</t>
+  </si>
+  <si>
+    <t>35.48931</t>
+  </si>
+  <si>
+    <t>-59.34226</t>
+  </si>
+  <si>
+    <t>0.719213056</t>
+  </si>
+  <si>
+    <t>-1.706677</t>
+  </si>
+  <si>
+    <t>34.52179</t>
+  </si>
+  <si>
+    <t>-61.04358</t>
+  </si>
+  <si>
+    <t>0.568039502</t>
+  </si>
+  <si>
+    <t>end.tax.btotal</t>
+  </si>
+  <si>
+    <t>-0.4787911</t>
+  </si>
+  <si>
+    <t>-11.574001</t>
+  </si>
+  <si>
+    <t>0.510011409</t>
+  </si>
+  <si>
+    <t>-0.4008277</t>
+  </si>
+  <si>
+    <t>-1.536176</t>
+  </si>
+  <si>
+    <t>10.85759</t>
+  </si>
+  <si>
+    <t>-10.078817</t>
+  </si>
+  <si>
+    <t>1.495183</t>
+  </si>
+  <si>
+    <t>0.241493214</t>
+  </si>
+  <si>
+    <t>end.tax.brich</t>
+  </si>
+  <si>
+    <t>-1.729537</t>
+  </si>
+  <si>
+    <t>14.62983</t>
+  </si>
+  <si>
+    <t>-21.259659</t>
+  </si>
+  <si>
+    <t>0.6471235593</t>
+  </si>
+  <si>
+    <t>end.tax.brepl</t>
+  </si>
+  <si>
+    <t>-1.578328</t>
+  </si>
+  <si>
+    <t>18.83162</t>
+  </si>
+  <si>
+    <t>-29.66324</t>
+  </si>
+  <si>
+    <t>0.58227707</t>
+  </si>
+  <si>
+    <t>-0.052536892</t>
+  </si>
+  <si>
+    <t>13.52259</t>
+  </si>
+  <si>
+    <t>-19.04519</t>
+  </si>
+  <si>
+    <t>0.413684585</t>
+  </si>
+  <si>
+    <t>-0.182315796</t>
+  </si>
+  <si>
+    <t>0.2451625</t>
+  </si>
+  <si>
+    <t>14.60163</t>
+  </si>
+  <si>
+    <t>-17.5669</t>
+  </si>
+  <si>
+    <t>1.478291</t>
+  </si>
+  <si>
+    <t>0.197543435</t>
+  </si>
+  <si>
+    <t>-1.188191</t>
+  </si>
+  <si>
+    <t>9.544353</t>
+  </si>
+  <si>
+    <t>-11.088705</t>
+  </si>
+  <si>
+    <t>0.61955055</t>
+  </si>
+  <si>
+    <t>-1.1028</t>
+  </si>
+  <si>
+    <t>14.46278</t>
+  </si>
+  <si>
+    <t>-20.92555</t>
+  </si>
+  <si>
+    <t>0.579942651</t>
+  </si>
+  <si>
+    <t>-0.05179484</t>
+  </si>
+  <si>
+    <t>15.65145</t>
+  </si>
+  <si>
+    <t>-23.30291</t>
+  </si>
+  <si>
+    <t>0.32143276</t>
+  </si>
+  <si>
+    <t>0.09293236</t>
+  </si>
+  <si>
+    <t>-0.3540385</t>
+  </si>
+  <si>
+    <t>17.45342</t>
+  </si>
+  <si>
+    <t>-23.27048</t>
+  </si>
+  <si>
+    <t>0.0324294</t>
+  </si>
+  <si>
+    <t>0.31626286</t>
+  </si>
+  <si>
+    <t>-1.245447</t>
+  </si>
+  <si>
+    <t>9.128143</t>
+  </si>
+  <si>
+    <t>-10.25628506</t>
+  </si>
+  <si>
+    <t>0.50917954</t>
+  </si>
+  <si>
+    <t>-1.080478</t>
+  </si>
+  <si>
+    <t>11.03586</t>
+  </si>
+  <si>
+    <t>-14.071715</t>
+  </si>
+  <si>
+    <t>0.524758356</t>
+  </si>
+  <si>
+    <t>0.18849124</t>
+  </si>
+  <si>
+    <t>0.9989586</t>
+  </si>
+  <si>
+    <t>31.71657</t>
+  </si>
+  <si>
+    <t>-51.79677</t>
+  </si>
+  <si>
+    <t>0.453254877</t>
+  </si>
+  <si>
+    <t>0.73024864</t>
+  </si>
+  <si>
+    <t>29.53621</t>
+  </si>
+  <si>
+    <t>-51.07242</t>
+  </si>
+  <si>
+    <t>0.7243489</t>
+  </si>
+  <si>
+    <t>0.315538324</t>
+  </si>
+  <si>
+    <t>-0.1007206</t>
+  </si>
+  <si>
+    <t>1.292324</t>
+  </si>
+  <si>
+    <t>28.93551</t>
+  </si>
+  <si>
+    <t>-46.23466</t>
+  </si>
+  <si>
+    <t>0.64032999</t>
+  </si>
+  <si>
+    <t>-2.649647</t>
+  </si>
+  <si>
+    <t>40.91072</t>
+  </si>
+  <si>
+    <t>-73.82144</t>
+  </si>
+  <si>
+    <t>0.579335508</t>
+  </si>
+  <si>
+    <t>end.func.btotal</t>
+  </si>
+  <si>
+    <t>0.2050071</t>
+  </si>
+  <si>
+    <t>-0.6539367</t>
+  </si>
+  <si>
+    <t>13.48735</t>
+  </si>
+  <si>
+    <t>-15.33834</t>
+  </si>
+  <si>
+    <t>0.564111049</t>
+  </si>
+  <si>
+    <t>end.func.brich</t>
+  </si>
+  <si>
+    <t>-1.1226834</t>
+  </si>
+  <si>
+    <t>7.357294</t>
+  </si>
+  <si>
+    <t>-6.714587</t>
+  </si>
+  <si>
+    <t>0.525596869</t>
+  </si>
+  <si>
+    <t>-0.802159</t>
+  </si>
+  <si>
+    <t>-0.8365672</t>
+  </si>
+  <si>
+    <t>8.278896</t>
+  </si>
+  <si>
+    <t>-4.9214288</t>
+  </si>
+  <si>
+    <t>1.793158</t>
+  </si>
+  <si>
+    <t>0.214424005</t>
+  </si>
+  <si>
+    <t>end.func.brepl</t>
+  </si>
+  <si>
+    <t>-1.167223</t>
+  </si>
+  <si>
+    <t>9.112262</t>
+  </si>
+  <si>
+    <t>-10.22452409</t>
+  </si>
+  <si>
+    <t>0.516781169</t>
+  </si>
+  <si>
+    <t>-1.398558</t>
+  </si>
+  <si>
+    <t>0.3936362</t>
+  </si>
+  <si>
+    <t>10.04638</t>
+  </si>
+  <si>
+    <t>-8.45639631</t>
+  </si>
+  <si>
+    <t>1.768128</t>
+  </si>
+  <si>
+    <t>0.213482663</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$TAlphaNInd) </t>
+  </si>
+  <si>
+    <t>TAlphaNInd.glmm.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAlphaNInd.glmm.4 = glmmTMB(TAlphaNInd ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "poisson") </t>
+  </si>
+  <si>
+    <t>TAlphaNInd.glmm.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAlphaNInd.glmm.5 = glmmTMB(TAlphaNInd ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "poisson") </t>
+  </si>
+  <si>
+    <t>TAlphaNInd.glmm.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAlphaNInd.glmm.6 = glmmTMB(TAlphaNInd ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "poisson") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$FAlphaAll) </t>
+  </si>
+  <si>
+    <t>FAlphaAll.glmm.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAlphaAll.glmm.9 = glmmTMB(FAlphaAll ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "Gamma") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$abund.all) </t>
+  </si>
+  <si>
+    <t>abund.all.glmm.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abund.all.glmm.14 = glmmTMB(abund.all ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "nbinom1") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$prop.Talpha) </t>
+  </si>
+  <si>
+    <t>prop.Talpha.glmm.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prop.Talpha.glmm.19 = glmmTMB(prop.Talpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$prop.Falpha) </t>
+  </si>
+  <si>
+    <t>prop.Falpha.glmm.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prop.Falpha.glmm.21 = glmmTMB(prop.Falpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$nind.tax.btotal) </t>
+  </si>
+  <si>
+    <t>nind.tax.btotal.glmm.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nind.tax.btotal.glmm.31 = glmmTMB(nind.tax.btotal ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t>nind.tax.brich.glmm.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nind.tax.brich.glmm.32 = glmmTMB(nind.tax.brich ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$nind.tax.brich) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$end.tax.btotal) </t>
+  </si>
+  <si>
+    <t>end.tax.btotal.glmm.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end.tax.btotal.glmm.35 = glmmTMB(end.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$all.func.btotal) </t>
+  </si>
+  <si>
+    <t>all.func.btotal.glmm.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all.func.btotal.glmm.39 = glmmTMB(all.func.btotal ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$nat.func.btotal) </t>
+  </si>
+  <si>
+    <t>nat.func.btotal.glmm.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nat.func.btotal.glmm.43 = glmmTMB(nat.func.btotal ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t>nind.func.btotal.glmm.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nind.func.btotal.glmm.46 = glmmTMB(nind.func.btotal ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$nind.func.btotal) </t>
+  </si>
+  <si>
+    <t>nind.func.brich.glmm.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nind.func.brich.glmm.48 = glmmTMB(nind.func.brich ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$nind.func.brich) </t>
+  </si>
+  <si>
+    <t>end.func.btotal.glmm.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end.func.btotal.glmm.50 = glmmTMB(end.func.btotal ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$end.func.btotal) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$end.func.brich) </t>
+  </si>
+  <si>
+    <t>end.func.brich.glmm.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end.func.brich.glmm.52 = glmmTMB(end.func.brich ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hist(Results2$end.func.brepl) </t>
+  </si>
+  <si>
+    <t>end.func.brepl.glmm.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end.func.brepl.glmm.54 = glmmTMB(end.func.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </t>
   </si>
 </sst>
 </file>
@@ -1774,13 +1850,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2136,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L52" sqref="A1:L52"/>
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2412,10 +2486,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2430,19 +2504,19 @@
         <v>12</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2453,7 +2527,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2462,25 +2536,25 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2488,10 +2562,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2500,25 +2574,25 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2526,10 +2600,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2547,16 +2621,16 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>390</v>
+        <v>211</v>
       </c>
       <c r="J11" t="s">
-        <v>391</v>
+        <v>212</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>392</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2564,10 +2638,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -2585,16 +2659,16 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>394</v>
+        <v>215</v>
       </c>
       <c r="J12" t="s">
-        <v>395</v>
+        <v>216</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>396</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2602,10 +2676,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>397</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -2617,22 +2691,22 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>399</v>
+        <v>220</v>
       </c>
       <c r="J13" t="s">
-        <v>400</v>
-      </c>
-      <c r="K13" t="s">
-        <v>401</v>
+        <v>221</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>402</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2640,10 +2714,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>403</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -2661,16 +2735,16 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>404</v>
+        <v>188</v>
       </c>
       <c r="J14" t="s">
-        <v>405</v>
+        <v>189</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>406</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2678,10 +2752,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>407</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -2693,22 +2767,22 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>408</v>
+        <v>193</v>
       </c>
       <c r="J15" t="s">
-        <v>409</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="K15" t="s">
+        <v>195</v>
       </c>
       <c r="L15" t="s">
-        <v>410</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2716,10 +2790,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -2737,16 +2811,16 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2754,10 +2828,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -2769,22 +2843,22 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" t="s">
-        <v>70</v>
+        <v>203</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2792,10 +2866,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -2813,16 +2887,16 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2830,10 +2904,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -2842,25 +2916,25 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2868,10 +2942,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -2883,22 +2957,22 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>63</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2906,10 +2980,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -2921,22 +2995,22 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2944,37 +3018,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2982,10 +3056,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -2997,22 +3071,22 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -3020,37 +3094,37 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" t="s">
-        <v>112</v>
+        <v>245</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -3058,10 +3132,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -3073,22 +3147,22 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="I25" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -3096,37 +3170,37 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" t="s">
-        <v>125</v>
+        <v>249</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -3134,10 +3208,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -3149,22 +3223,22 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -3172,37 +3246,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
-      </c>
-      <c r="K28" t="s">
-        <v>138</v>
+        <v>257</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -3210,10 +3284,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -3231,16 +3305,16 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -3248,10 +3322,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -3263,22 +3337,22 @@
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="J30" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3286,37 +3360,37 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K31" t="s">
-        <v>156</v>
+        <v>269</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -3324,37 +3398,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="J32" t="s">
-        <v>163</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3362,16 +3436,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -3380,19 +3454,19 @@
         <v>12</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>167</v>
-      </c>
-      <c r="K33" t="s">
-        <v>168</v>
+        <v>280</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3400,10 +3474,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -3415,22 +3489,22 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="J34" t="s">
-        <v>173</v>
-      </c>
-      <c r="K34" t="s">
-        <v>174</v>
+        <v>284</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -3438,37 +3512,37 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="H35">
-        <v>5</v>
-      </c>
-      <c r="I35" t="s">
-        <v>180</v>
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>0.92152777777777783</v>
       </c>
       <c r="J35" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -3476,10 +3550,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -3491,22 +3565,22 @@
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="J36" t="s">
-        <v>186</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>187</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -3514,16 +3588,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -3532,19 +3606,19 @@
         <v>12</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="J37" t="s">
-        <v>191</v>
-      </c>
-      <c r="K37" t="s">
-        <v>192</v>
+        <v>299</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -3552,10 +3626,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -3567,22 +3641,22 @@
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>197</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -3590,37 +3664,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>203</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>204</v>
-      </c>
-      <c r="K39" t="s">
-        <v>205</v>
+        <v>308</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>206</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -3628,37 +3702,37 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="H40">
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="J40" t="s">
-        <v>211</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
       </c>
       <c r="L40" t="s">
-        <v>212</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -3666,37 +3740,37 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="J41" t="s">
-        <v>217</v>
-      </c>
-      <c r="K41" t="s">
-        <v>218</v>
+        <v>318</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -3704,10 +3778,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>320</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -3719,22 +3793,22 @@
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>223</v>
+        <v>321</v>
       </c>
       <c r="J42" t="s">
-        <v>224</v>
+        <v>322</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>225</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -3742,37 +3816,37 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>229</v>
+        <v>325</v>
       </c>
       <c r="J43" t="s">
-        <v>230</v>
-      </c>
-      <c r="K43" t="s">
-        <v>231</v>
+        <v>326</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>232</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -3780,10 +3854,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -3792,25 +3866,25 @@
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="G44" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="J44" t="s">
-        <v>237</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
+        <v>331</v>
+      </c>
+      <c r="K44" t="s">
+        <v>332</v>
       </c>
       <c r="L44" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -3818,37 +3892,37 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="J45" t="s">
-        <v>243</v>
-      </c>
-      <c r="K45" t="s">
-        <v>244</v>
+        <v>336</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -3856,10 +3930,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -3871,22 +3945,22 @@
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="J46" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>251</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -3894,37 +3968,37 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="H47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="J47" t="s">
-        <v>256</v>
-      </c>
-      <c r="K47" t="s">
-        <v>257</v>
+        <v>345</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>258</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -3932,10 +4006,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -3947,22 +4021,22 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="J48" t="s">
-        <v>263</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="K48" t="s">
+        <v>350</v>
       </c>
       <c r="L48" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -3970,37 +4044,37 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="J49" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -4008,37 +4082,37 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="J50" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -4046,10 +4120,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -4058,25 +4132,25 @@
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>281</v>
+        <v>364</v>
       </c>
       <c r="J51" t="s">
-        <v>282</v>
+        <v>365</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -4084,16 +4158,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="C52" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -4102,19 +4176,133 @@
         <v>12</v>
       </c>
       <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>369</v>
+      </c>
+      <c r="J52" t="s">
+        <v>370</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>367</v>
+      </c>
+      <c r="C53" t="s">
+        <v>372</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>373</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53">
         <v>4</v>
       </c>
-      <c r="I52" t="s">
-        <v>286</v>
-      </c>
-      <c r="J52" t="s">
-        <v>287</v>
-      </c>
-      <c r="K52" t="s">
-        <v>288</v>
-      </c>
-      <c r="L52" t="s">
-        <v>289</v>
+      <c r="I53" t="s">
+        <v>374</v>
+      </c>
+      <c r="J53" t="s">
+        <v>375</v>
+      </c>
+      <c r="K53" t="s">
+        <v>376</v>
+      </c>
+      <c r="L53" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" t="s">
+        <v>379</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>380</v>
+      </c>
+      <c r="J54" t="s">
+        <v>381</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>378</v>
+      </c>
+      <c r="C55" t="s">
+        <v>383</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>384</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>385</v>
+      </c>
+      <c r="J55" t="s">
+        <v>386</v>
+      </c>
+      <c r="K55" t="s">
+        <v>387</v>
+      </c>
+      <c r="L55" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -4124,10 +4312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U55" sqref="A1:U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4168,7 +4356,7 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
@@ -4206,20 +4394,20 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>413</v>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>411</v>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="O2" t="str">
         <f xml:space="preserve"> CONCATENATE(B2, ".glmm.",A2)</f>
@@ -4238,7 +4426,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S2" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="T2" t="str">
         <f>CONCATENATE(O2,$N$3,$N$2,B2,$N$4,P2,Q2,R2,$N$6,$N$7,S2,$N$8)</f>
@@ -4274,7 +4462,7 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
@@ -4287,7 +4475,7 @@
         <v>17</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>298</v>
+        <v>96</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O52" si="0" xml:space="preserve"> CONCATENATE(B3, ".glmm.",A3)</f>
@@ -4306,7 +4494,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S3" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" ref="T3:T52" si="4">CONCATENATE(O3,$N$3,$N$2,B3,$N$4,P3,Q3,R3,$N$6,$N$7,S3,$N$8)</f>
@@ -4342,7 +4530,7 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
@@ -4355,7 +4543,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>290</v>
+        <v>88</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="0"/>
@@ -4374,7 +4562,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S4" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="T4" t="str">
         <f t="shared" si="4"/>
@@ -4410,7 +4598,7 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
       <c r="J5" t="s">
@@ -4423,7 +4611,7 @@
         <v>28</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
@@ -4442,7 +4630,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S5" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" si="4"/>
@@ -4478,7 +4666,7 @@
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
@@ -4491,7 +4679,7 @@
         <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="0"/>
@@ -4510,7 +4698,7 @@
         <v>Dist_trail_std +</v>
       </c>
       <c r="S6" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="4"/>
@@ -4546,7 +4734,7 @@
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>37</v>
       </c>
       <c r="J7" t="s">
@@ -4559,7 +4747,7 @@
         <v>40</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
@@ -4578,7 +4766,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S7" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="4"/>
@@ -4594,10 +4782,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4612,26 +4800,26 @@
         <v>12</v>
       </c>
       <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>207</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
-        <v>FAlphaAll.glmm.7</v>
+        <v>TAlphaEnd.glmm.7</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="1"/>
@@ -4646,15 +4834,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S8" t="s">
-        <v>296</v>
+        <v>94</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FAlphaAll.glmm.7 = glmmTMB(FAlphaAll ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <v xml:space="preserve">TAlphaEnd.glmm.7 = glmmTMB(TAlphaEnd ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$FAlphaAll) </v>
+        <v xml:space="preserve">hist(Results2$TAlphaEnd) </v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -4665,7 +4853,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4674,28 +4862,28 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>345</v>
+        <v>143</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
@@ -4707,18 +4895,18 @@
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_beginning_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S9" t="s">
-        <v>296</v>
+        <v>94</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FAlphaAll.glmm.8 = glmmTMB(FAlphaAll ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <v xml:space="preserve">FAlphaAll.glmm.8 = glmmTMB(FAlphaAll ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="5"/>
@@ -4730,10 +4918,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -4742,32 +4930,32 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>346</v>
+        <v>144</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="0"/>
-        <v>FAlphaNat.glmm.9</v>
+        <v>FAlphaAll.glmm.9</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
@@ -4775,22 +4963,22 @@
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_beginning_std +</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S10" t="s">
-        <v>296</v>
+        <v>94</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FAlphaNat.glmm.9 = glmmTMB(FAlphaNat ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <v xml:space="preserve">FAlphaAll.glmm.9 = glmmTMB(FAlphaAll ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$FAlphaNat) </v>
+        <v xml:space="preserve">hist(Results2$FAlphaAll) </v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -4798,10 +4986,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -4818,24 +5006,24 @@
       <c r="H11">
         <v>3</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>390</v>
+      <c r="I11" t="s">
+        <v>211</v>
       </c>
       <c r="J11" t="s">
-        <v>391</v>
+        <v>212</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>392</v>
+        <v>213</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="0"/>
-        <v>FAlphaNInd.glmm.10</v>
+        <v>FAlphaNat.glmm.10</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="1"/>
@@ -4850,15 +5038,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S11" t="s">
-        <v>296</v>
+        <v>94</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FAlphaNInd.glmm.10 = glmmTMB(FAlphaNInd ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+        <v xml:space="preserve">FAlphaNat.glmm.10 = glmmTMB(FAlphaNat ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$FAlphaNInd) </v>
+        <v xml:space="preserve">hist(Results2$FAlphaNat) </v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -4866,10 +5054,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -4886,24 +5074,24 @@
       <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>394</v>
+      <c r="I12" t="s">
+        <v>215</v>
       </c>
       <c r="J12" t="s">
-        <v>395</v>
+        <v>216</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>396</v>
+        <v>217</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>386</v>
+        <v>184</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="0"/>
-        <v>abund.all.glmm.11</v>
+        <v>FAlphaNInd.glmm.11</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="1"/>
@@ -4918,15 +5106,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S12" t="s">
-        <v>388</v>
+        <v>186</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">abund.all.glmm.11 = glmmTMB(abund.all ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
+        <v xml:space="preserve">FAlphaNInd.glmm.11 = glmmTMB(FAlphaNInd ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$abund.all) </v>
+        <v xml:space="preserve">hist(Results2$FAlphaNInd) </v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -4934,10 +5122,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>397</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -4949,29 +5137,29 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>399</v>
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>220</v>
       </c>
       <c r="J13" t="s">
-        <v>400</v>
-      </c>
-      <c r="K13" t="s">
-        <v>401</v>
+        <v>221</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>402</v>
+        <v>222</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>387</v>
+        <v>185</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
-        <v>abund.all.glmm.12</v>
+        <v>FAlphaEnd.glmm.12</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="1"/>
@@ -4983,18 +5171,18 @@
       </c>
       <c r="R13" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S13" t="s">
-        <v>388</v>
+        <v>186</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">abund.all.glmm.12 = glmmTMB(abund.all ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "nbinom1") </v>
+        <v xml:space="preserve">FAlphaEnd.glmm.12 = glmmTMB(FAlphaEnd ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$abund.all) </v>
+        <v xml:space="preserve">hist(Results2$FAlphaEnd) </v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -5002,10 +5190,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>403</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -5022,21 +5210,21 @@
       <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>404</v>
+      <c r="I14" t="s">
+        <v>188</v>
       </c>
       <c r="J14" t="s">
-        <v>405</v>
+        <v>189</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>406</v>
+        <v>190</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="0"/>
-        <v>abund.nat.glmm.13</v>
+        <v>abund.all.glmm.13</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="1"/>
@@ -5051,15 +5239,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S14" t="s">
-        <v>388</v>
+        <v>186</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">abund.nat.glmm.13 = glmmTMB(abund.nat ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
+        <v xml:space="preserve">abund.all.glmm.13 = glmmTMB(abund.all ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$abund.nat) </v>
+        <v xml:space="preserve">hist(Results2$abund.all) </v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -5067,10 +5255,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>407</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -5082,26 +5270,26 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>408</v>
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>193</v>
       </c>
       <c r="J15" t="s">
-        <v>409</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="K15" t="s">
+        <v>195</v>
       </c>
       <c r="L15" t="s">
-        <v>410</v>
+        <v>196</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="0"/>
-        <v>abund.nind.glmm.14</v>
+        <v>abund.all.glmm.14</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="1"/>
@@ -5113,18 +5301,18 @@
       </c>
       <c r="R15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S15" t="s">
-        <v>388</v>
+        <v>186</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">abund.nind.glmm.14 = glmmTMB(abund.nind ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
+        <v xml:space="preserve">abund.all.glmm.14 = glmmTMB(abund.all ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "nbinom1") </v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$abund.nind) </v>
+        <v xml:space="preserve">hist(Results2$abund.all) </v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -5132,10 +5320,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -5152,21 +5340,21 @@
       <c r="H16">
         <v>3</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>63</v>
+      <c r="I16" t="s">
+        <v>198</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="0"/>
-        <v>prop.Talpha.glmm.15</v>
+        <v>abund.nat.glmm.15</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="1"/>
@@ -5181,15 +5369,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S16" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.Talpha.glmm.15 = glmmTMB(prop.Talpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">abund.nat.glmm.15 = glmmTMB(abund.nat ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.Talpha) </v>
+        <v xml:space="preserve">hist(Results2$abund.nat) </v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -5197,10 +5385,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -5212,26 +5400,26 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>68</v>
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>202</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" t="s">
-        <v>70</v>
+        <v>203</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="0"/>
-        <v>prop.Talpha.glmm.16</v>
+        <v>abund.nind.glmm.16</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="1"/>
@@ -5243,18 +5431,18 @@
       </c>
       <c r="R17" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S17" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.Talpha.glmm.16 = glmmTMB(prop.Talpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">abund.nind.glmm.16 = glmmTMB(abund.nind ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.Talpha) </v>
+        <v xml:space="preserve">hist(Results2$abund.nind) </v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -5262,10 +5450,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -5282,21 +5470,21 @@
       <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>74</v>
+      <c r="I18" t="s">
+        <v>225</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="0"/>
-        <v>prop.Falpha.glmm.17</v>
+        <v>abund.end.glmm.17</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="1"/>
@@ -5311,15 +5499,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S18" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.Falpha.glmm.17 = glmmTMB(prop.Falpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">abund.end.glmm.17 = glmmTMB(abund.end ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.Falpha) </v>
+        <v xml:space="preserve">hist(Results2$abund.end) </v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -5327,10 +5515,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -5339,29 +5527,29 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>79</v>
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" t="s">
-        <v>81</v>
+        <v>59</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="0"/>
-        <v>prop.Falpha.glmm.18</v>
+        <v>prop.Talpha.glmm.18</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="1"/>
@@ -5369,22 +5557,22 @@
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_beginning_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R19" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S19" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.Falpha.glmm.18 = glmmTMB(prop.Falpha ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">prop.Talpha.glmm.18 = glmmTMB(prop.Talpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.Falpha) </v>
+        <v xml:space="preserve">hist(Results2$prop.Talpha) </v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -5392,10 +5580,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -5407,26 +5595,26 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>85</v>
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>63</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="0"/>
-        <v>prop.abund.glmm.19</v>
+        <v>prop.Talpha.glmm.19</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="1"/>
@@ -5438,18 +5626,18 @@
       </c>
       <c r="R20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S20" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.abund.glmm.19 = glmmTMB(prop.abund ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">prop.Talpha.glmm.19 = glmmTMB(prop.Talpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.abund) </v>
+        <v xml:space="preserve">hist(Results2$prop.Talpha) </v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -5457,10 +5645,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -5472,26 +5660,26 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="0"/>
-        <v>all.tax.btotal.glmm.20</v>
+        <v>prop.Falpha.glmm.20</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="1"/>
@@ -5503,18 +5691,18 @@
       </c>
       <c r="R21" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S21" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.tax.btotal.glmm.20 = glmmTMB(all.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">prop.Falpha.glmm.20 = glmmTMB(prop.Falpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.tax.btotal) </v>
+        <v xml:space="preserve">hist(Results2$prop.Falpha) </v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -5522,45 +5710,45 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>97</v>
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="0"/>
-        <v>all.tax.btotal.glmm.21</v>
+        <v>prop.Falpha.glmm.21</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="2"/>
@@ -5571,15 +5759,15 @@
         <v>Dist_trail_std +</v>
       </c>
       <c r="S22" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.tax.btotal.glmm.21 = glmmTMB(all.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">prop.Falpha.glmm.21 = glmmTMB(prop.Falpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.tax.btotal) </v>
+        <v xml:space="preserve">hist(Results2$prop.Falpha) </v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -5587,10 +5775,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -5602,26 +5790,26 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="H23">
-        <v>4</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>104</v>
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="0"/>
-        <v>all.tax.brich.glmm.22</v>
+        <v>prop.abund.glmm.22</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="1"/>
@@ -5633,18 +5821,18 @@
       </c>
       <c r="R23" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S23" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.tax.brich.glmm.22 = glmmTMB(all.tax.brich ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">prop.abund.glmm.22 = glmmTMB(prop.abund ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.tax.brich) </v>
+        <v xml:space="preserve">hist(Results2$prop.abund) </v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -5652,45 +5840,45 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" t="s">
-        <v>112</v>
+        <v>245</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="0"/>
-        <v>all.tax.brich.glmm.23</v>
+        <v>prop.end.glmm.23</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="2"/>
@@ -5698,18 +5886,18 @@
       </c>
       <c r="R24" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S24" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.tax.brich.glmm.23 = glmmTMB(all.tax.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">prop.end.glmm.23 = glmmTMB(prop.end ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.tax.brich) </v>
+        <v xml:space="preserve">hist(Results2$prop.end) </v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -5717,10 +5905,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -5732,26 +5920,26 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="0"/>
-        <v>all.tax.brepl.glmm.24</v>
+        <v>all.tax.btotal.glmm.24</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="1"/>
@@ -5763,18 +5951,18 @@
       </c>
       <c r="R25" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S25" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T25" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.tax.brepl.glmm.24 = glmmTMB(all.tax.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">all.tax.btotal.glmm.24 = glmmTMB(all.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.tax.brepl) </v>
+        <v xml:space="preserve">hist(Results2$all.tax.btotal) </v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -5782,45 +5970,45 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>123</v>
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>124</v>
-      </c>
-      <c r="K26" t="s">
-        <v>125</v>
+        <v>249</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="0"/>
-        <v>all.tax.brepl.glmm.25</v>
+        <v>all.tax.brich.glmm.25</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="2"/>
@@ -5828,18 +6016,18 @@
       </c>
       <c r="R26" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S26" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.tax.brepl.glmm.25 = glmmTMB(all.tax.brepl ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">all.tax.brich.glmm.25 = glmmTMB(all.tax.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.tax.brepl) </v>
+        <v xml:space="preserve">hist(Results2$all.tax.brich) </v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -5847,10 +6035,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -5862,26 +6050,26 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>130</v>
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="0"/>
-        <v>nat.tax.btotal.glmm.26</v>
+        <v>all.tax.brepl.glmm.26</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="1"/>
@@ -5893,18 +6081,18 @@
       </c>
       <c r="R27" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S27" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T27" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.tax.btotal.glmm.26 = glmmTMB(nat.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">all.tax.brepl.glmm.26 = glmmTMB(all.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.tax.btotal) </v>
+        <v xml:space="preserve">hist(Results2$all.tax.brepl) </v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -5912,37 +6100,37 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>136</v>
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
-      </c>
-      <c r="K28" t="s">
-        <v>138</v>
+        <v>257</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="0"/>
@@ -5950,7 +6138,7 @@
       </c>
       <c r="P28" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="2"/>
@@ -5958,14 +6146,14 @@
       </c>
       <c r="R28" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S28" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T28" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.tax.btotal.glmm.27 = glmmTMB(nat.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nat.tax.btotal.glmm.27 = glmmTMB(nat.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="5"/>
@@ -5977,10 +6165,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -5997,17 +6185,17 @@
       <c r="H29">
         <v>3</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>142</v>
+      <c r="I29" t="s">
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="0"/>
@@ -6026,7 +6214,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S29" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T29" t="str">
         <f t="shared" si="4"/>
@@ -6042,10 +6230,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -6057,22 +6245,22 @@
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>148</v>
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>264</v>
       </c>
       <c r="J30" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="0"/>
@@ -6088,14 +6276,14 @@
       </c>
       <c r="R30" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S30" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T30" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.tax.brepl.glmm.29 = glmmTMB(nat.tax.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nat.tax.brepl.glmm.29 = glmmTMB(nat.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="5"/>
@@ -6107,45 +6295,45 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>5</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>154</v>
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
       </c>
       <c r="J31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K31" t="s">
-        <v>156</v>
+        <v>269</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="0"/>
-        <v>nat.tax.brepl.glmm.30</v>
+        <v>nind.tax.btotal.glmm.30</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="2"/>
@@ -6153,18 +6341,18 @@
       </c>
       <c r="R31" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S31" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T31" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.tax.brepl.glmm.30 = glmmTMB(nat.tax.brepl ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nind.tax.btotal.glmm.30 = glmmTMB(nind.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.tax.brepl) </v>
+        <v xml:space="preserve">hist(Results2$nind.tax.btotal) </v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -6172,37 +6360,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>162</v>
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
       </c>
       <c r="J32" t="s">
-        <v>163</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="0"/>
@@ -6218,14 +6406,14 @@
       </c>
       <c r="R32" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S32" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T32" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.tax.btotal.glmm.31 = glmmTMB(nind.tax.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nind.tax.btotal.glmm.31 = glmmTMB(nind.tax.btotal ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U32" t="str">
         <f t="shared" si="5"/>
@@ -6237,16 +6425,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -6255,27 +6443,27 @@
         <v>12</v>
       </c>
       <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>166</v>
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>167</v>
-      </c>
-      <c r="K33" t="s">
-        <v>168</v>
+        <v>280</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="0"/>
-        <v>nind.tax.btotal.glmm.32</v>
+        <v>nind.tax.brich.glmm.32</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_edge_std +</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="2"/>
@@ -6286,15 +6474,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S33" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T33" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.tax.btotal.glmm.32 = glmmTMB(nind.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nind.tax.brich.glmm.32 = glmmTMB(nind.tax.brich ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.tax.btotal) </v>
+        <v xml:space="preserve">hist(Results2$nind.tax.brich) </v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -6302,10 +6490,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -6317,26 +6505,26 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>172</v>
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
       </c>
       <c r="J34" t="s">
-        <v>173</v>
-      </c>
-      <c r="K34" t="s">
-        <v>174</v>
+        <v>284</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="0"/>
-        <v>nind.tax.btotal.glmm.33</v>
+        <v>nind.tax.brepl.glmm.33</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="1"/>
@@ -6348,18 +6536,18 @@
       </c>
       <c r="R34" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S34" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T34" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.tax.btotal.glmm.33 = glmmTMB(nind.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nind.tax.brepl.glmm.33 = glmmTMB(nind.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U34" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.tax.btotal) </v>
+        <v xml:space="preserve">hist(Results2$nind.tax.brepl) </v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -6367,45 +6555,45 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="H35">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>180</v>
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>0.92152777777777783</v>
       </c>
       <c r="J35" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="0"/>
-        <v>nind.tax.brich.glmm.34</v>
+        <v>end.tax.btotal.glmm.34</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="2"/>
@@ -6413,18 +6601,18 @@
       </c>
       <c r="R35" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S35" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.tax.brich.glmm.34 = glmmTMB(nind.tax.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">end.tax.btotal.glmm.34 = glmmTMB(end.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U35" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.tax.brich) </v>
+        <v xml:space="preserve">hist(Results2$end.tax.btotal) </v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -6432,10 +6620,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -6447,26 +6635,26 @@
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>185</v>
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
       </c>
       <c r="J36" t="s">
-        <v>186</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
       </c>
       <c r="L36" t="s">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="0"/>
-        <v>nind.tax.brepl.glmm.35</v>
+        <v>end.tax.btotal.glmm.35</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="1"/>
@@ -6478,18 +6666,18 @@
       </c>
       <c r="R36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_std +</v>
       </c>
       <c r="S36" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.tax.brepl.glmm.35 = glmmTMB(nind.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">end.tax.btotal.glmm.35 = glmmTMB(end.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.tax.brepl) </v>
+        <v xml:space="preserve">hist(Results2$end.tax.btotal) </v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -6497,16 +6685,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -6515,27 +6703,27 @@
         <v>12</v>
       </c>
       <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>190</v>
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>298</v>
       </c>
       <c r="J37" t="s">
-        <v>191</v>
-      </c>
-      <c r="K37" t="s">
-        <v>192</v>
+        <v>299</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="0"/>
-        <v>nind.tax.brepl.glmm.36</v>
+        <v>end.tax.brich.glmm.36</v>
       </c>
       <c r="P37" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="2"/>
@@ -6546,15 +6734,15 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S37" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.tax.brepl.glmm.36 = glmmTMB(nind.tax.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">end.tax.brich.glmm.36 = glmmTMB(end.tax.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.tax.brepl) </v>
+        <v xml:space="preserve">hist(Results2$end.tax.brich) </v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -6562,10 +6750,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -6577,26 +6765,26 @@
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>197</v>
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="0"/>
-        <v>all.func.btotal.glmm.37</v>
+        <v>end.tax.brepl.glmm.37</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="1"/>
@@ -6608,18 +6796,18 @@
       </c>
       <c r="R38" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S38" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T38" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.func.btotal.glmm.37 = glmmTMB(all.func.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">end.tax.brepl.glmm.37 = glmmTMB(end.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.func.btotal) </v>
+        <v xml:space="preserve">hist(Results2$end.tax.brepl) </v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -6627,37 +6815,37 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>306</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="H39">
-        <v>5</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>203</v>
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>307</v>
       </c>
       <c r="J39" t="s">
-        <v>204</v>
-      </c>
-      <c r="K39" t="s">
-        <v>205</v>
+        <v>308</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="0"/>
@@ -6665,7 +6853,7 @@
       </c>
       <c r="P39" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="2"/>
@@ -6673,14 +6861,14 @@
       </c>
       <c r="R39" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S39" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T39" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.func.btotal.glmm.38 = glmmTMB(all.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">all.func.btotal.glmm.38 = glmmTMB(all.func.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="5"/>
@@ -6692,45 +6880,45 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="H40">
         <v>4</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>210</v>
+      <c r="I40" t="s">
+        <v>312</v>
       </c>
       <c r="J40" t="s">
-        <v>211</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
       </c>
       <c r="L40" t="s">
-        <v>212</v>
+        <v>315</v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="0"/>
-        <v>all.func.brich.glmm.39</v>
+        <v>all.func.btotal.glmm.39</v>
       </c>
       <c r="P40" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_edge_std +</v>
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="2"/>
@@ -6738,18 +6926,18 @@
       </c>
       <c r="R40" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S40" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.func.brich.glmm.39 = glmmTMB(all.func.brich ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">all.func.btotal.glmm.39 = glmmTMB(all.func.btotal ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.func.brich) </v>
+        <v xml:space="preserve">hist(Results2$all.func.btotal) </v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -6757,37 +6945,37 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>216</v>
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>317</v>
       </c>
       <c r="J41" t="s">
-        <v>217</v>
-      </c>
-      <c r="K41" t="s">
-        <v>218</v>
+        <v>318</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>219</v>
+        <v>319</v>
       </c>
       <c r="O41" t="str">
         <f t="shared" si="0"/>
@@ -6795,7 +6983,7 @@
       </c>
       <c r="P41" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="2"/>
@@ -6803,14 +6991,14 @@
       </c>
       <c r="R41" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S41" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T41" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.func.brich.glmm.40 = glmmTMB(all.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">all.func.brich.glmm.40 = glmmTMB(all.func.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="5"/>
@@ -6822,10 +7010,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>320</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -6837,22 +7025,22 @@
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="H42">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>223</v>
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>321</v>
       </c>
       <c r="J42" t="s">
-        <v>224</v>
+        <v>322</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>225</v>
+        <v>323</v>
       </c>
       <c r="O42" t="str">
         <f t="shared" si="0"/>
@@ -6868,14 +7056,14 @@
       </c>
       <c r="R42" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S42" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T42" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.func.brepl.glmm.41 = glmmTMB(all.func.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">all.func.brepl.glmm.41 = glmmTMB(all.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="5"/>
@@ -6887,45 +7075,45 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>229</v>
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>325</v>
       </c>
       <c r="J43" t="s">
-        <v>230</v>
-      </c>
-      <c r="K43" t="s">
-        <v>231</v>
+        <v>326</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="0"/>
-        <v>all.func.brepl.glmm.42</v>
+        <v>nat.func.btotal.glmm.42</v>
       </c>
       <c r="P43" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="2"/>
@@ -6933,18 +7121,18 @@
       </c>
       <c r="R43" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S43" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T43" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.func.brepl.glmm.42 = glmmTMB(all.func.brepl ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nat.func.btotal.glmm.42 = glmmTMB(nat.func.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.func.brepl) </v>
+        <v xml:space="preserve">hist(Results2$nat.func.btotal) </v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -6952,10 +7140,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -6964,25 +7152,25 @@
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="G44" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>236</v>
+      <c r="I44" t="s">
+        <v>330</v>
       </c>
       <c r="J44" t="s">
-        <v>237</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
+        <v>331</v>
+      </c>
+      <c r="K44" t="s">
+        <v>332</v>
       </c>
       <c r="L44" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="0"/>
@@ -6994,18 +7182,18 @@
       </c>
       <c r="Q44" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_beginning_std +</v>
       </c>
       <c r="R44" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S44" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.func.btotal.glmm.43 = glmmTMB(nat.func.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nat.func.btotal.glmm.43 = glmmTMB(nat.func.btotal ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U44" t="str">
         <f t="shared" si="5"/>
@@ -7017,45 +7205,45 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="H45">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>242</v>
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>335</v>
       </c>
       <c r="J45" t="s">
-        <v>243</v>
-      </c>
-      <c r="K45" t="s">
-        <v>244</v>
+        <v>336</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="0"/>
-        <v>nat.func.btotal.glmm.44</v>
+        <v>nat.func.brich.glmm.44</v>
       </c>
       <c r="P45" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="2"/>
@@ -7063,18 +7251,18 @@
       </c>
       <c r="R45" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S45" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T45" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.func.btotal.glmm.44 = glmmTMB(nat.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nat.func.brich.glmm.44 = glmmTMB(nat.func.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.func.btotal) </v>
+        <v xml:space="preserve">hist(Results2$nat.func.brich) </v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -7082,10 +7270,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>338</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -7097,26 +7285,26 @@
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="H46">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>249</v>
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>339</v>
       </c>
       <c r="J46" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>251</v>
+        <v>341</v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="0"/>
-        <v>nat.func.brich.glmm.45</v>
+        <v>nat.func.brepl.glmm.45</v>
       </c>
       <c r="P46" t="str">
         <f t="shared" si="1"/>
@@ -7128,18 +7316,18 @@
       </c>
       <c r="R46" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S46" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T46" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.func.brich.glmm.45 = glmmTMB(nat.func.brich ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nat.func.brepl.glmm.45 = glmmTMB(nat.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.func.brich) </v>
+        <v xml:space="preserve">hist(Results2$nat.func.brepl) </v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -7147,41 +7335,41 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>255</v>
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
+        <v>344</v>
       </c>
       <c r="J47" t="s">
-        <v>256</v>
-      </c>
-      <c r="K47" t="s">
-        <v>257</v>
+        <v>345</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>258</v>
+        <v>346</v>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="0"/>
-        <v>nat.func.brich.glmm.46</v>
+        <v>nind.func.btotal.glmm.46</v>
       </c>
       <c r="P47" t="str">
         <f t="shared" si="1"/>
@@ -7193,18 +7381,18 @@
       </c>
       <c r="R47" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S47" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T47" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.func.brich.glmm.46 = glmmTMB(nat.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nind.func.btotal.glmm.46 = glmmTMB(nind.func.btotal ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.func.brich) </v>
+        <v xml:space="preserve">hist(Results2$nind.func.btotal) </v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -7212,10 +7400,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -7227,26 +7415,26 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="H48">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>262</v>
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>348</v>
       </c>
       <c r="J48" t="s">
-        <v>263</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="K48" t="s">
+        <v>350</v>
       </c>
       <c r="L48" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="0"/>
-        <v>nat.func.brepl.glmm.47</v>
+        <v>nind.func.btotal.glmm.47</v>
       </c>
       <c r="P48" t="str">
         <f t="shared" si="1"/>
@@ -7258,18 +7446,18 @@
       </c>
       <c r="R48" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S48" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.func.brepl.glmm.47 = glmmTMB(nat.func.brepl ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nind.func.btotal.glmm.47 = glmmTMB(nind.func.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.func.brepl) </v>
+        <v xml:space="preserve">hist(Results2$nind.func.btotal) </v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -7277,41 +7465,41 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>269</v>
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>354</v>
       </c>
       <c r="J49" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="0"/>
-        <v>nind.func.btotal.glmm.48</v>
+        <v>nind.func.brich.glmm.48</v>
       </c>
       <c r="P49" t="str">
         <f t="shared" si="1"/>
@@ -7323,18 +7511,18 @@
       </c>
       <c r="R49" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S49" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T49" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.func.btotal.glmm.48 = glmmTMB(nind.func.btotal ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nind.func.brich.glmm.48 = glmmTMB(nind.func.brich ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.func.btotal) </v>
+        <v xml:space="preserve">hist(Results2$nind.func.brich) </v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -7342,45 +7530,45 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>276</v>
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>358</v>
       </c>
       <c r="J50" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="0"/>
-        <v>nind.func.brich.glmm.49</v>
+        <v>nind.func.brepl.glmm.49</v>
       </c>
       <c r="P50" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q50" t="str">
         <f t="shared" si="2"/>
@@ -7388,18 +7576,18 @@
       </c>
       <c r="R50" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S50" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T50" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.func.brich.glmm.49 = glmmTMB(nind.func.brich ~ Dist_edge_std + Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">nind.func.brepl.glmm.49 = glmmTMB(nind.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U50" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.func.brich) </v>
+        <v xml:space="preserve">hist(Results2$nind.func.brepl) </v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -7407,10 +7595,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -7419,29 +7607,29 @@
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
       </c>
       <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>281</v>
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>364</v>
       </c>
       <c r="J51" t="s">
-        <v>282</v>
+        <v>365</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="0"/>
-        <v>nind.func.brepl.glmm.50</v>
+        <v>end.func.btotal.glmm.50</v>
       </c>
       <c r="P51" t="str">
         <f t="shared" si="1"/>
@@ -7449,22 +7637,22 @@
       </c>
       <c r="Q51" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Dist_trail_beginning_std +</v>
       </c>
       <c r="R51" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S51" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T51" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.func.brepl.glmm.50 = glmmTMB(nind.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">end.func.btotal.glmm.50 = glmmTMB(end.func.btotal ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.func.brepl) </v>
+        <v xml:space="preserve">hist(Results2$end.func.btotal) </v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -7472,16 +7660,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="C52" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -7490,27 +7678,27 @@
         <v>12</v>
       </c>
       <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>286</v>
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>369</v>
       </c>
       <c r="J52" t="s">
-        <v>287</v>
-      </c>
-      <c r="K52" t="s">
-        <v>288</v>
+        <v>370</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="0"/>
-        <v>nind.func.brepl.glmm.51</v>
+        <v>end.func.brich.glmm.51</v>
       </c>
       <c r="P52" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q52" t="str">
         <f t="shared" si="2"/>
@@ -7521,15 +7709,210 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S52" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
       <c r="T52" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.func.brepl.glmm.51 = glmmTMB(nind.func.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
+        <v xml:space="preserve">end.func.brich.glmm.51 = glmmTMB(end.func.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
       </c>
       <c r="U52" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.func.brepl) </v>
+        <v xml:space="preserve">hist(Results2$end.func.brich) </v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>367</v>
+      </c>
+      <c r="C53" t="s">
+        <v>372</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>373</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>374</v>
+      </c>
+      <c r="J53" t="s">
+        <v>375</v>
+      </c>
+      <c r="K53" t="s">
+        <v>376</v>
+      </c>
+      <c r="L53" t="s">
+        <v>377</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" ref="O53:O55" si="6" xml:space="preserve"> CONCATENATE(B53, ".glmm.",A53)</f>
+        <v>end.func.brich.glmm.52</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" ref="P53:P55" si="7">IF(E53="NA"," ",$N$9)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" ref="Q53:Q55" si="8">IF(F53="NA"," ",$N$10)</f>
+        <v>Dist_trail_beginning_std +</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" ref="R53:R55" si="9">IF(G53="NA"," ",$N$11)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S53" t="s">
+        <v>95</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" ref="T53:T55" si="10">CONCATENATE(O53,$N$3,$N$2,B53,$N$4,P53,Q53,R53,$N$6,$N$7,S53,$N$8)</f>
+        <v xml:space="preserve">end.func.brich.glmm.52 = glmmTMB(end.func.brich ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" ref="U53:U55" si="11">CONCATENATE($N$12,$N$13,B53,$N$8)</f>
+        <v xml:space="preserve">hist(Results2$end.func.brich) </v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" t="s">
+        <v>379</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>380</v>
+      </c>
+      <c r="J54" t="s">
+        <v>381</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>382</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="6"/>
+        <v>end.func.brepl.glmm.53</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S54" t="s">
+        <v>95</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">end.func.brepl.glmm.53 = glmmTMB(end.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">hist(Results2$end.func.brepl) </v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>378</v>
+      </c>
+      <c r="C55" t="s">
+        <v>383</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>384</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>385</v>
+      </c>
+      <c r="J55" t="s">
+        <v>386</v>
+      </c>
+      <c r="K55" t="s">
+        <v>387</v>
+      </c>
+      <c r="L55" t="s">
+        <v>388</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="6"/>
+        <v>end.func.brepl.glmm.54</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="7"/>
+        <v>Dist_edge_std +</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S55" t="s">
+        <v>95</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">end.func.brepl.glmm.54 = glmmTMB(end.func.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">hist(Results2$end.func.brepl) </v>
       </c>
     </row>
   </sheetData>
@@ -7553,418 +7936,1486 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>344</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>356</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>307</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>324</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>358</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>360</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>326</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>361</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>327</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>362</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>363</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>364</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>366</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>367</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>368</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>369</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>332</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>370</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>311</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>371</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>372</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>373</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>335</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>374</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>335</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>375</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>376</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>336</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>377</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>378</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>337</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>379</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>338</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>338</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>381</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>339</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>382</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>383</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>341</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>384</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>342</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>312</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0975F276-E0E1-8F42-9DEF-F85A039F1EB5}">
+  <dimension ref="A1:U18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T2:T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="20" max="20" width="114.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" t="s">
+        <v>392</v>
+      </c>
+      <c r="U2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" t="s">
+        <v>393</v>
+      </c>
+      <c r="P3" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>389</v>
+      </c>
+      <c r="R3" t="s">
+        <v>145</v>
+      </c>
+      <c r="S3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" t="s">
+        <v>394</v>
+      </c>
+      <c r="U3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" t="s">
+        <v>395</v>
+      </c>
+      <c r="P4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>389</v>
+      </c>
+      <c r="R4" t="s">
+        <v>389</v>
+      </c>
+      <c r="S4" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" t="s">
+        <v>396</v>
+      </c>
+      <c r="U4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" t="s">
+        <v>398</v>
+      </c>
+      <c r="P5" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>144</v>
+      </c>
+      <c r="R5" t="s">
+        <v>389</v>
+      </c>
+      <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" t="s">
+        <v>399</v>
+      </c>
+      <c r="U5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" t="s">
+        <v>196</v>
+      </c>
+      <c r="O6" t="s">
+        <v>401</v>
+      </c>
+      <c r="P6" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>389</v>
+      </c>
+      <c r="R6" t="s">
+        <v>145</v>
+      </c>
+      <c r="S6" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" t="s">
+        <v>402</v>
+      </c>
+      <c r="U6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>389</v>
+      </c>
+      <c r="R7" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" t="s">
+        <v>95</v>
+      </c>
+      <c r="T7" t="s">
+        <v>405</v>
+      </c>
+      <c r="U7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" t="s">
+        <v>239</v>
+      </c>
+      <c r="L8" t="s">
+        <v>240</v>
+      </c>
+      <c r="O8" t="s">
+        <v>407</v>
+      </c>
+      <c r="P8" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>389</v>
+      </c>
+      <c r="R8" t="s">
+        <v>145</v>
+      </c>
+      <c r="S8" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" t="s">
+        <v>408</v>
+      </c>
+      <c r="U8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J9" t="s">
+        <v>274</v>
+      </c>
+      <c r="K9" t="s">
+        <v>275</v>
+      </c>
+      <c r="L9" t="s">
+        <v>276</v>
+      </c>
+      <c r="O9" t="s">
+        <v>410</v>
+      </c>
+      <c r="P9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>389</v>
+      </c>
+      <c r="R9" t="s">
+        <v>389</v>
+      </c>
+      <c r="S9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" t="s">
+        <v>411</v>
+      </c>
+      <c r="U9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" t="s">
+        <v>280</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>281</v>
+      </c>
+      <c r="O10" t="s">
+        <v>412</v>
+      </c>
+      <c r="P10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>389</v>
+      </c>
+      <c r="R10" t="s">
+        <v>389</v>
+      </c>
+      <c r="S10" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" t="s">
+        <v>413</v>
+      </c>
+      <c r="U10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>292</v>
+      </c>
+      <c r="J11" t="s">
+        <v>293</v>
+      </c>
+      <c r="K11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L11" t="s">
+        <v>295</v>
+      </c>
+      <c r="O11" t="s">
+        <v>416</v>
+      </c>
+      <c r="P11" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>389</v>
+      </c>
+      <c r="R11" t="s">
+        <v>145</v>
+      </c>
+      <c r="S11" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" t="s">
+        <v>417</v>
+      </c>
+      <c r="U11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K12" t="s">
+        <v>314</v>
+      </c>
+      <c r="L12" t="s">
+        <v>315</v>
+      </c>
+      <c r="O12" t="s">
+        <v>419</v>
+      </c>
+      <c r="P12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>389</v>
+      </c>
+      <c r="R12" t="s">
+        <v>389</v>
+      </c>
+      <c r="S12" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" t="s">
+        <v>420</v>
+      </c>
+      <c r="U12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>330</v>
+      </c>
+      <c r="J13" t="s">
+        <v>331</v>
+      </c>
+      <c r="K13" t="s">
+        <v>332</v>
+      </c>
+      <c r="L13" t="s">
+        <v>333</v>
+      </c>
+      <c r="O13" t="s">
+        <v>422</v>
+      </c>
+      <c r="P13" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" t="s">
+        <v>389</v>
+      </c>
+      <c r="S13" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" t="s">
+        <v>423</v>
+      </c>
+      <c r="U13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
         <v>342</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>344</v>
+      </c>
+      <c r="J14" t="s">
+        <v>345</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>346</v>
+      </c>
+      <c r="O14" t="s">
+        <v>424</v>
+      </c>
+      <c r="P14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>389</v>
+      </c>
+      <c r="R14" t="s">
+        <v>389</v>
+      </c>
+      <c r="S14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" t="s">
+        <v>425</v>
+      </c>
+      <c r="U14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>354</v>
+      </c>
+      <c r="J15" t="s">
+        <v>355</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>356</v>
+      </c>
+      <c r="O15" t="s">
+        <v>427</v>
+      </c>
+      <c r="P15" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>389</v>
+      </c>
+      <c r="R15" t="s">
+        <v>389</v>
+      </c>
+      <c r="S15" t="s">
+        <v>95</v>
+      </c>
+      <c r="T15" t="s">
+        <v>428</v>
+      </c>
+      <c r="U15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>364</v>
+      </c>
+      <c r="J16" t="s">
+        <v>365</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>366</v>
+      </c>
+      <c r="O16" t="s">
+        <v>430</v>
+      </c>
+      <c r="P16" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R16" t="s">
+        <v>389</v>
+      </c>
+      <c r="S16" t="s">
+        <v>95</v>
+      </c>
+      <c r="T16" t="s">
+        <v>431</v>
+      </c>
+      <c r="U16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>373</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>374</v>
+      </c>
+      <c r="J17" t="s">
+        <v>375</v>
+      </c>
+      <c r="K17" t="s">
+        <v>376</v>
+      </c>
+      <c r="L17" t="s">
+        <v>377</v>
+      </c>
+      <c r="O17" t="s">
+        <v>434</v>
+      </c>
+      <c r="P17" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>144</v>
+      </c>
+      <c r="R17" t="s">
+        <v>389</v>
+      </c>
+      <c r="S17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17" t="s">
+        <v>435</v>
+      </c>
+      <c r="U17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
         <v>385</v>
+      </c>
+      <c r="J18" t="s">
+        <v>386</v>
+      </c>
+      <c r="K18" t="s">
+        <v>387</v>
+      </c>
+      <c r="L18" t="s">
+        <v>388</v>
+      </c>
+      <c r="O18" t="s">
+        <v>437</v>
+      </c>
+      <c r="P18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>389</v>
+      </c>
+      <c r="R18" t="s">
+        <v>389</v>
+      </c>
+      <c r="S18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18" t="s">
+        <v>438</v>
+      </c>
+      <c r="U18" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/data/working.origin.model.formulas.xlsx
+++ b/data/working.origin.model.formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santorui/Documents/GitHub/FinlandAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBFD5E2-91C6-5447-BF5F-BDA36D171F03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF050454-E152-064C-BCD8-137BCD7D9846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="540" windowWidth="51200" windowHeight="26840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aic.models2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="454">
   <si>
     <t>V1</t>
   </si>
@@ -580,9 +580,6 @@
     <t>hist(</t>
   </si>
   <si>
-    <t>Results2$</t>
-  </si>
-  <si>
     <t>"nbinom1"</t>
   </si>
   <si>
@@ -1340,13 +1337,61 @@
   </si>
   <si>
     <t xml:space="preserve">end.func.brepl.glmm.54 = glmmTMB(end.func.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </t>
+  </si>
+  <si>
+    <t>(1 | ForestID), data= withoutcontrols,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all.tax.btotal.glmm.24 = glmmTMB(all.tax.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </t>
+  </si>
+  <si>
+    <t>Version1</t>
+  </si>
+  <si>
+    <t>Version2</t>
+  </si>
+  <si>
+    <t>AICc       Nakagawa</t>
+  </si>
+  <si>
+    <t>AICm       Nakagawa</t>
+  </si>
+  <si>
+    <t>0.040</t>
+  </si>
+  <si>
+    <t>0.525133</t>
+  </si>
+  <si>
+    <t>0.4673168</t>
+  </si>
+  <si>
+    <t>modelTMB[[</t>
+  </si>
+  <si>
+    <t>withoutcontrols$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1 | ForestID), data= </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results2, </t>
+  </si>
+  <si>
+    <t>Results2,</t>
+  </si>
+  <si>
+    <t>withoutcontrols,</t>
+  </si>
+  <si>
+    <t>TAlphaNat.glmm.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1480,6 +1525,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1675,7 +1726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1805,6 +1856,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1850,11 +1912,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2213,10 +2278,13 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+      <selection activeCell="A15" sqref="A15:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -2486,10 +2554,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
         <v>205</v>
-      </c>
-      <c r="C8" t="s">
-        <v>206</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2507,16 +2575,16 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" t="s">
         <v>207</v>
-      </c>
-      <c r="J8" t="s">
-        <v>208</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2603,7 +2671,7 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2621,16 +2689,16 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" t="s">
         <v>211</v>
-      </c>
-      <c r="J11" t="s">
-        <v>212</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2641,7 +2709,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -2659,16 +2727,16 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" t="s">
         <v>215</v>
-      </c>
-      <c r="J12" t="s">
-        <v>216</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2676,10 +2744,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" t="s">
         <v>218</v>
-      </c>
-      <c r="C13" t="s">
-        <v>219</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -2697,16 +2765,16 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" t="s">
         <v>220</v>
-      </c>
-      <c r="J13" t="s">
-        <v>221</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2717,7 +2785,7 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -2735,16 +2803,16 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" t="s">
         <v>188</v>
-      </c>
-      <c r="J14" t="s">
-        <v>189</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2755,34 +2823,34 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>191</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>192</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" t="s">
         <v>193</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>194</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>195</v>
-      </c>
-      <c r="L15" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2793,7 +2861,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -2811,16 +2879,16 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" t="s">
         <v>198</v>
-      </c>
-      <c r="J16" t="s">
-        <v>199</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2831,7 +2899,7 @@
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -2849,16 +2917,16 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17" t="s">
         <v>202</v>
-      </c>
-      <c r="J17" t="s">
-        <v>203</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2866,10 +2934,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" t="s">
         <v>223</v>
-      </c>
-      <c r="C18" t="s">
-        <v>224</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -2887,16 +2955,16 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" t="s">
         <v>225</v>
-      </c>
-      <c r="J18" t="s">
-        <v>226</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2907,7 +2975,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -2945,19 +3013,19 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>229</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>230</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -2983,7 +3051,7 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -3001,16 +3069,16 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
+        <v>231</v>
+      </c>
+      <c r="J21" t="s">
         <v>232</v>
-      </c>
-      <c r="J21" t="s">
-        <v>233</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -3021,34 +3089,34 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
         <v>235</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>236</v>
       </c>
       <c r="H22">
         <v>4</v>
       </c>
       <c r="I22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J22" t="s">
         <v>237</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>238</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>239</v>
-      </c>
-      <c r="L22" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -3059,7 +3127,7 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -3094,10 +3162,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
         <v>242</v>
-      </c>
-      <c r="C24" t="s">
-        <v>243</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -3115,16 +3183,16 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" t="s">
         <v>244</v>
-      </c>
-      <c r="J24" t="s">
-        <v>245</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -3173,7 +3241,7 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -3191,16 +3259,16 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
         <v>248</v>
-      </c>
-      <c r="J26" t="s">
-        <v>249</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -3211,7 +3279,7 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -3229,16 +3297,16 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" t="s">
         <v>252</v>
-      </c>
-      <c r="J27" t="s">
-        <v>253</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -3249,7 +3317,7 @@
         <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -3267,16 +3335,16 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" t="s">
         <v>256</v>
-      </c>
-      <c r="J28" t="s">
-        <v>257</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -3287,7 +3355,7 @@
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -3305,16 +3373,16 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
         <v>260</v>
-      </c>
-      <c r="J29" t="s">
-        <v>261</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -3325,7 +3393,7 @@
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -3343,16 +3411,16 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
         <v>264</v>
-      </c>
-      <c r="J30" t="s">
-        <v>265</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -3363,7 +3431,7 @@
         <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -3381,16 +3449,16 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
         <v>268</v>
-      </c>
-      <c r="J31" t="s">
-        <v>269</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -3401,13 +3469,13 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
         <v>271</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>272</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -3419,16 +3487,16 @@
         <v>4</v>
       </c>
       <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
         <v>273</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>274</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>275</v>
-      </c>
-      <c r="L32" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -3439,13 +3507,13 @@
         <v>77</v>
       </c>
       <c r="C33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
         <v>277</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>278</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -3457,16 +3525,16 @@
         <v>4</v>
       </c>
       <c r="I33" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" t="s">
         <v>279</v>
-      </c>
-      <c r="J33" t="s">
-        <v>280</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -3477,7 +3545,7 @@
         <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -3495,16 +3563,16 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
         <v>283</v>
-      </c>
-      <c r="J34" t="s">
-        <v>284</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -3512,10 +3580,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" t="s">
         <v>286</v>
-      </c>
-      <c r="C35" t="s">
-        <v>287</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -3536,13 +3604,13 @@
         <v>0.92152777777777783</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -3550,37 +3618,37 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
         <v>290</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>291</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
       <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
         <v>292</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>293</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>294</v>
-      </c>
-      <c r="L36" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -3588,10 +3656,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" t="s">
         <v>296</v>
-      </c>
-      <c r="C37" t="s">
-        <v>297</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -3609,16 +3677,16 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
         <v>298</v>
-      </c>
-      <c r="J37" t="s">
-        <v>299</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -3626,10 +3694,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" t="s">
         <v>301</v>
-      </c>
-      <c r="C38" t="s">
-        <v>302</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -3647,16 +3715,16 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
+        <v>302</v>
+      </c>
+      <c r="J38" t="s">
         <v>303</v>
-      </c>
-      <c r="J38" t="s">
-        <v>304</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -3667,7 +3735,7 @@
         <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -3685,16 +3753,16 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
         <v>307</v>
-      </c>
-      <c r="J39" t="s">
-        <v>308</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -3705,13 +3773,13 @@
         <v>79</v>
       </c>
       <c r="C40" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
         <v>310</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>311</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -3723,16 +3791,16 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
+        <v>311</v>
+      </c>
+      <c r="J40" t="s">
         <v>312</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>313</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>314</v>
-      </c>
-      <c r="L40" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -3743,7 +3811,7 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -3761,16 +3829,16 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
+        <v>316</v>
+      </c>
+      <c r="J41" t="s">
         <v>317</v>
-      </c>
-      <c r="J41" t="s">
-        <v>318</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -3781,7 +3849,7 @@
         <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -3799,16 +3867,16 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
+        <v>320</v>
+      </c>
+      <c r="J42" t="s">
         <v>321</v>
-      </c>
-      <c r="J42" t="s">
-        <v>322</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -3819,7 +3887,7 @@
         <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -3837,16 +3905,16 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
+        <v>324</v>
+      </c>
+      <c r="J43" t="s">
         <v>325</v>
-      </c>
-      <c r="J43" t="s">
-        <v>326</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -3857,16 +3925,16 @@
         <v>82</v>
       </c>
       <c r="C44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
         <v>328</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
-        <v>329</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3875,16 +3943,16 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
+        <v>329</v>
+      </c>
+      <c r="J44" t="s">
         <v>330</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>331</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>332</v>
-      </c>
-      <c r="L44" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -3895,7 +3963,7 @@
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -3913,16 +3981,16 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
+        <v>334</v>
+      </c>
+      <c r="J45" t="s">
         <v>335</v>
-      </c>
-      <c r="J45" t="s">
-        <v>336</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -3933,7 +4001,7 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -3951,16 +4019,16 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
+        <v>338</v>
+      </c>
+      <c r="J46" t="s">
         <v>339</v>
-      </c>
-      <c r="J46" t="s">
-        <v>340</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -3971,13 +4039,13 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
         <v>342</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>343</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -3989,16 +4057,16 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
+        <v>343</v>
+      </c>
+      <c r="J47" t="s">
         <v>344</v>
-      </c>
-      <c r="J47" t="s">
-        <v>345</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -4009,7 +4077,7 @@
         <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -4027,16 +4095,16 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
+        <v>347</v>
+      </c>
+      <c r="J48" t="s">
         <v>348</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>349</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>350</v>
-      </c>
-      <c r="L48" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -4047,13 +4115,13 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
         <v>352</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>353</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -4065,16 +4133,16 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
+        <v>353</v>
+      </c>
+      <c r="J49" t="s">
         <v>354</v>
-      </c>
-      <c r="J49" t="s">
-        <v>355</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -4085,7 +4153,7 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -4103,16 +4171,16 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
+        <v>357</v>
+      </c>
+      <c r="J50" t="s">
         <v>358</v>
-      </c>
-      <c r="J50" t="s">
-        <v>359</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -4120,19 +4188,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>360</v>
+      </c>
+      <c r="C51" t="s">
         <v>361</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
         <v>362</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>363</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -4141,16 +4209,16 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
+        <v>363</v>
+      </c>
+      <c r="J51" t="s">
         <v>364</v>
-      </c>
-      <c r="J51" t="s">
-        <v>365</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -4158,10 +4226,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>366</v>
+      </c>
+      <c r="C52" t="s">
         <v>367</v>
-      </c>
-      <c r="C52" t="s">
-        <v>368</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -4179,16 +4247,16 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
+        <v>368</v>
+      </c>
+      <c r="J52" t="s">
         <v>369</v>
-      </c>
-      <c r="J52" t="s">
-        <v>370</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -4196,19 +4264,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C53" t="s">
+        <v>371</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
         <v>372</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="s">
-        <v>373</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -4217,16 +4285,16 @@
         <v>4</v>
       </c>
       <c r="I53" t="s">
+        <v>373</v>
+      </c>
+      <c r="J53" t="s">
         <v>374</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>375</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>376</v>
-      </c>
-      <c r="L53" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -4234,10 +4302,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C54" t="s">
         <v>378</v>
-      </c>
-      <c r="C54" t="s">
-        <v>379</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -4255,16 +4323,16 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
+        <v>379</v>
+      </c>
+      <c r="J54" t="s">
         <v>380</v>
-      </c>
-      <c r="J54" t="s">
-        <v>381</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -4272,16 +4340,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C55" t="s">
+        <v>382</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
         <v>383</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
-        <v>384</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -4293,16 +4361,16 @@
         <v>4</v>
       </c>
       <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" t="s">
         <v>385</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>386</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>387</v>
-      </c>
-      <c r="L55" t="s">
-        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -4312,10 +4380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U55" sqref="A1:U55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="O13:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4324,17 +4392,20 @@
     <col min="7" max="7" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="3"/>
     <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.83203125" customWidth="1"/>
+    <col min="14" max="14" width="32" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="28" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" customWidth="1"/>
-    <col min="20" max="20" width="140.1640625" customWidth="1"/>
-    <col min="21" max="21" width="112.83203125" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
+    <col min="20" max="21" width="140.1640625" customWidth="1"/>
+    <col min="22" max="22" width="112.83203125" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" customWidth="1"/>
+    <col min="24" max="24" width="23.5" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4368,8 +4439,20 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W1" t="s">
+        <v>442</v>
+      </c>
+      <c r="X1" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4409,19 +4492,19 @@
       <c r="N2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2" s="1" t="str">
         <f xml:space="preserve"> CONCATENATE(B2, ".glmm.",A2)</f>
         <v>TAlphaAll.glmm.1</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P2" s="1" t="str">
         <f>IF(E2="NA"," ",$N$9)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q2" s="1" t="str">
         <f>IF(F2="NA"," ",$N$10)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="1" t="str">
         <f>IF(G2="NA"," ",$N$11)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -4429,15 +4512,18 @@
         <v>93</v>
       </c>
       <c r="T2" t="str">
-        <f>CONCATENATE(O2,$N$3,$N$2,B2,$N$4,P2,Q2,R2,$N$6,$N$7,S2,$N$8)</f>
-        <v xml:space="preserve">TAlphaAll.glmm.1 = glmmTMB(TAlphaAll ~    (1 | ForestID), data= Results2,family = "poisson") </v>
-      </c>
-      <c r="U2" t="str">
+        <f>CONCATENATE($N$15,A2,"]]",$N$3,$N$2,B2,$N$4,P2,Q2,R2,$N$6,U2,$N$7,S2,$N$8)</f>
+        <v xml:space="preserve">modelTMB[[1]] = glmmTMB(TAlphaAll ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+      </c>
+      <c r="U2" t="s">
+        <v>451</v>
+      </c>
+      <c r="V2" t="str">
         <f>CONCATENATE($N$12,$N$13,B2,$N$8)</f>
-        <v xml:space="preserve">hist(Results2$TAlphaAll) </v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, TAlphaAll) </v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4477,35 +4563,38 @@
       <c r="N3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O52" si="0" xml:space="preserve"> CONCATENATE(B3, ".glmm.",A3)</f>
+      <c r="O3" s="4" t="str">
+        <f xml:space="preserve"> CONCATENATE(B3, ".glmm.",A3)</f>
         <v>TAlphaNat.glmm.2</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P52" si="1">IF(E3="NA"," ",$N$9)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q52" si="2">IF(F3="NA"," ",$N$10)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R3" t="str">
-        <f t="shared" ref="R3:R52" si="3">IF(G3="NA"," ",$N$11)</f>
+      <c r="P3" s="4" t="str">
+        <f t="shared" ref="P3:P52" si="0">IF(E3="NA"," ",$N$9)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f t="shared" ref="Q3:Q52" si="1">IF(F3="NA"," ",$N$10)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <f t="shared" ref="R3:R52" si="2">IF(G3="NA"," ",$N$11)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S3" t="s">
         <v>93</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T52" si="4">CONCATENATE(O3,$N$3,$N$2,B3,$N$4,P3,Q3,R3,$N$6,$N$7,S3,$N$8)</f>
-        <v xml:space="preserve">TAlphaNat.glmm.2 = glmmTMB(TAlphaNat ~    (1 | ForestID), data= Results2,family = "poisson") </v>
-      </c>
-      <c r="U3" t="str">
-        <f t="shared" ref="U3:U52" si="5">CONCATENATE($N$12,$N$13,B3,$N$8)</f>
-        <v xml:space="preserve">hist(Results2$TAlphaNat) </v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" ref="T3:T55" si="3">CONCATENATE($N$15,A3,"]]",$N$3,$N$2,B3,$N$4,P3,Q3,R3,$N$6,U3,$N$7,S3,$N$8)</f>
+        <v xml:space="preserve">modelTMB[[2]] = glmmTMB(TAlphaNat ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+      </c>
+      <c r="U3" t="s">
+        <v>451</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V52" si="4">CONCATENATE($N$12,$N$13,B3,$N$8)</f>
+        <v xml:space="preserve">hist(Results2, TAlphaNat) </v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4545,35 +4634,38 @@
       <c r="N4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O4" t="str">
+      <c r="O4" s="1" t="str">
+        <f t="shared" ref="O4:O52" si="5" xml:space="preserve"> CONCATENATE(B4, ".glmm.",A4)</f>
+        <v>TAlphaNInd.glmm.3</v>
+      </c>
+      <c r="P4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TAlphaNInd.glmm.3</v>
-      </c>
-      <c r="P4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q4" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R4" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S4" t="s">
         <v>93</v>
       </c>
       <c r="T4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[3]] = glmmTMB(TAlphaNInd ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+      </c>
+      <c r="U4" t="s">
+        <v>451</v>
+      </c>
+      <c r="V4" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TAlphaNInd.glmm.3 = glmmTMB(TAlphaNInd ~    (1 | ForestID), data= Results2,family = "poisson") </v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$TAlphaNInd) </v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, TAlphaNInd) </v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4613,35 +4705,38 @@
       <c r="N5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O5" t="str">
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>TAlphaNInd.glmm.4</v>
+      </c>
+      <c r="P5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TAlphaNInd.glmm.4</v>
-      </c>
-      <c r="P5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q5" t="str">
+        <v>Dist_trail_beginning_std +</v>
+      </c>
+      <c r="R5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_beginning_std +</v>
-      </c>
-      <c r="R5" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S5" t="s">
         <v>93</v>
       </c>
       <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[4]] = glmmTMB(TAlphaNInd ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "poisson") </v>
+      </c>
+      <c r="U5" t="s">
+        <v>451</v>
+      </c>
+      <c r="V5" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TAlphaNInd.glmm.4 = glmmTMB(TAlphaNInd ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "poisson") </v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$TAlphaNInd) </v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, TAlphaNInd) </v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4679,37 +4774,52 @@
         <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" t="str">
+        <v>449</v>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>TAlphaNInd.glmm.5</v>
+      </c>
+      <c r="P6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TAlphaNInd.glmm.5</v>
-      </c>
-      <c r="P6" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q6" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q6" t="str">
+      <c r="R6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R6" t="str">
-        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S6" t="s">
         <v>93</v>
       </c>
       <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[5]] = glmmTMB(TAlphaNInd ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "poisson") </v>
+      </c>
+      <c r="U6" t="s">
+        <v>451</v>
+      </c>
+      <c r="V6" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TAlphaNInd.glmm.5 = glmmTMB(TAlphaNInd ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "poisson") </v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$TAlphaNInd) </v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, TAlphaNInd) </v>
+      </c>
+      <c r="W6" s="5">
+        <v>0.26736111111111099</v>
+      </c>
+      <c r="X6" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4749,43 +4859,46 @@
       <c r="N7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" si="0"/>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="5"/>
         <v>TAlphaNInd.glmm.6</v>
       </c>
-      <c r="P7" t="str">
+      <c r="P7" s="1" t="str">
         <f>IF(E7="NA"," ",$N$9)</f>
         <v>Dist_edge_std +</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R7" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S7" t="s">
         <v>93</v>
       </c>
       <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[6]] = glmmTMB(TAlphaNInd ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "poisson") </v>
+      </c>
+      <c r="U7" t="s">
+        <v>451</v>
+      </c>
+      <c r="V7" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TAlphaNInd.glmm.6 = glmmTMB(TAlphaNInd ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "poisson") </v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$TAlphaNInd) </v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, TAlphaNInd) </v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
         <v>205</v>
-      </c>
-      <c r="C8" t="s">
-        <v>206</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4803,49 +4916,52 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" t="s">
         <v>207</v>
-      </c>
-      <c r="J8" t="s">
-        <v>208</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>89</v>
       </c>
       <c r="O8" t="str">
+        <f t="shared" si="5"/>
+        <v>TAlphaEnd.glmm.7</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>TAlphaEnd.glmm.7</v>
-      </c>
-      <c r="P8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q8" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q8" t="str">
+      <c r="R8" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R8" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S8" t="s">
         <v>94</v>
       </c>
       <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[7]] = glmmTMB(TAlphaEnd ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+      </c>
+      <c r="U8" t="s">
+        <v>451</v>
+      </c>
+      <c r="V8" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">TAlphaEnd.glmm.7 = glmmTMB(TAlphaEnd ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$TAlphaEnd) </v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, TAlphaEnd) </v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4885,35 +5001,38 @@
       <c r="N9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O9" t="str">
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>FAlphaAll.glmm.8</v>
+      </c>
+      <c r="P9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>FAlphaAll.glmm.8</v>
-      </c>
-      <c r="P9" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q9" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q9" t="str">
+      <c r="R9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R9" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S9" t="s">
         <v>94</v>
       </c>
       <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[8]] = glmmTMB(FAlphaAll ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+      </c>
+      <c r="U9" t="s">
+        <v>451</v>
+      </c>
+      <c r="V9" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FAlphaAll.glmm.8 = glmmTMB(FAlphaAll ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$FAlphaAll) </v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, FAlphaAll) </v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4953,35 +5072,38 @@
       <c r="N10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="O10" t="str">
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>FAlphaAll.glmm.9</v>
+      </c>
+      <c r="P10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>FAlphaAll.glmm.9</v>
-      </c>
-      <c r="P10" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q10" t="str">
+        <v>Dist_trail_beginning_std +</v>
+      </c>
+      <c r="R10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_beginning_std +</v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S10" t="s">
         <v>94</v>
       </c>
       <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[9]] = glmmTMB(FAlphaAll ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "Gamma") </v>
+      </c>
+      <c r="U10" t="s">
+        <v>451</v>
+      </c>
+      <c r="V10" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FAlphaAll.glmm.9 = glmmTMB(FAlphaAll ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "Gamma") </v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$FAlphaAll) </v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, FAlphaAll) </v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4989,7 +5111,7 @@
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -5007,49 +5129,52 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" t="s">
         <v>211</v>
-      </c>
-      <c r="J11" t="s">
-        <v>212</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>145</v>
       </c>
       <c r="O11" t="str">
+        <f t="shared" si="5"/>
+        <v>FAlphaNat.glmm.10</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" si="0"/>
-        <v>FAlphaNat.glmm.10</v>
-      </c>
-      <c r="P11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q11" t="str">
+      <c r="R11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R11" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S11" t="s">
         <v>94</v>
       </c>
       <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[10]] = glmmTMB(FAlphaNat ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
+      </c>
+      <c r="U11" t="s">
+        <v>451</v>
+      </c>
+      <c r="V11" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FAlphaNat.glmm.10 = glmmTMB(FAlphaNat ~    (1 | ForestID), data= Results2,family = "Gamma") </v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$FAlphaNat) </v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, FAlphaNat) </v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5057,7 +5182,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -5075,57 +5200,60 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" t="s">
         <v>215</v>
-      </c>
-      <c r="J12" t="s">
-        <v>216</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O12" t="str">
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>FAlphaNInd.glmm.11</v>
+      </c>
+      <c r="P12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>FAlphaNInd.glmm.11</v>
-      </c>
-      <c r="P12" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q12" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q12" t="str">
+      <c r="R12" s="1" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R12" t="str">
+      <c r="S12" t="s">
+        <v>185</v>
+      </c>
+      <c r="T12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S12" t="s">
-        <v>186</v>
-      </c>
-      <c r="T12" t="str">
+        <v xml:space="preserve">modelTMB[[11]] = glmmTMB(FAlphaNInd ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
+      </c>
+      <c r="U12" t="s">
+        <v>451</v>
+      </c>
+      <c r="V12" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FAlphaNInd.glmm.11 = glmmTMB(FAlphaNInd ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$FAlphaNInd) </v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, FAlphaNInd) </v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" t="s">
         <v>218</v>
-      </c>
-      <c r="C13" t="s">
-        <v>219</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -5143,49 +5271,52 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" t="s">
         <v>220</v>
-      </c>
-      <c r="J13" t="s">
-        <v>221</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="5"/>
+        <v>FAlphaEnd.glmm.12</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S13" t="s">
         <v>185</v>
       </c>
-      <c r="O13" t="str">
-        <f t="shared" si="0"/>
-        <v>FAlphaEnd.glmm.12</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R13" t="str">
+      <c r="T13" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S13" t="s">
-        <v>186</v>
-      </c>
-      <c r="T13" t="str">
+        <v xml:space="preserve">modelTMB[[12]] = glmmTMB(FAlphaEnd ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
+      </c>
+      <c r="U13" t="s">
+        <v>451</v>
+      </c>
+      <c r="V13" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">FAlphaEnd.glmm.12 = glmmTMB(FAlphaEnd ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$FAlphaEnd) </v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, FAlphaEnd) </v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5193,7 +5324,7 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -5211,46 +5342,52 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" t="s">
         <v>188</v>
-      </c>
-      <c r="J14" t="s">
-        <v>189</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>190</v>
-      </c>
-      <c r="O14" t="str">
+        <v>189</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>abund.all.glmm.13</v>
+      </c>
+      <c r="P14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>abund.all.glmm.13</v>
-      </c>
-      <c r="P14" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q14" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q14" t="str">
+      <c r="R14" s="1" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R14" t="str">
+      <c r="S14" t="s">
+        <v>185</v>
+      </c>
+      <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S14" t="s">
-        <v>186</v>
-      </c>
-      <c r="T14" t="str">
+        <v xml:space="preserve">modelTMB[[13]] = glmmTMB(abund.all ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
+      </c>
+      <c r="U14" t="s">
+        <v>451</v>
+      </c>
+      <c r="V14" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">abund.all.glmm.13 = glmmTMB(abund.all ~    (1 | ForestID), data= Results2,family = "nbinom1") </v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$abund.all) </v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, abund.all) </v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5258,64 +5395,70 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>191</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>192</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" t="s">
         <v>193</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>194</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>195</v>
       </c>
-      <c r="L15" t="s">
-        <v>196</v>
-      </c>
-      <c r="O15" t="str">
+      <c r="N15" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>abund.all.glmm.14</v>
+      </c>
+      <c r="P15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>abund.all.glmm.14</v>
-      </c>
-      <c r="P15" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q15" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q15" t="str">
+      <c r="R15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R15" t="str">
+        <v>Dist_trail_std +</v>
+      </c>
+      <c r="S15" t="s">
+        <v>185</v>
+      </c>
+      <c r="T15" t="str">
         <f t="shared" si="3"/>
-        <v>Dist_trail_std +</v>
-      </c>
-      <c r="S15" t="s">
-        <v>186</v>
-      </c>
-      <c r="T15" t="str">
+        <v xml:space="preserve">modelTMB[[14]] = glmmTMB(abund.all ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "nbinom1") </v>
+      </c>
+      <c r="U15" t="s">
+        <v>451</v>
+      </c>
+      <c r="V15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">abund.all.glmm.14 = glmmTMB(abund.all ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "nbinom1") </v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$abund.all) </v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, abund.all) </v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5323,7 +5466,7 @@
         <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -5341,46 +5484,52 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" t="s">
         <v>198</v>
-      </c>
-      <c r="J16" t="s">
-        <v>199</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="N16" t="s">
+        <v>448</v>
       </c>
       <c r="O16" t="str">
+        <f t="shared" si="5"/>
+        <v>abund.nat.glmm.15</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" si="0"/>
-        <v>abund.nat.glmm.15</v>
-      </c>
-      <c r="P16" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q16" t="str">
+      <c r="R16" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R16" t="str">
+      <c r="S16" t="s">
+        <v>93</v>
+      </c>
+      <c r="T16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S16" t="s">
-        <v>95</v>
-      </c>
-      <c r="T16" t="str">
+        <v xml:space="preserve">modelTMB[[15]] = glmmTMB(abund.nat ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+      </c>
+      <c r="U16" t="s">
+        <v>451</v>
+      </c>
+      <c r="V16" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">abund.nat.glmm.15 = glmmTMB(abund.nat ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U16" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$abund.nat) </v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, abund.nat) </v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5388,7 +5537,7 @@
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -5406,54 +5555,57 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17" t="s">
         <v>202</v>
-      </c>
-      <c r="J17" t="s">
-        <v>203</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>204</v>
-      </c>
-      <c r="O17" t="str">
+        <v>203</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>abund.nind.glmm.16</v>
+      </c>
+      <c r="P17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>abund.nind.glmm.16</v>
-      </c>
-      <c r="P17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q17" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q17" t="str">
+      <c r="R17" s="1" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R17" t="str">
+      <c r="S17" t="s">
+        <v>93</v>
+      </c>
+      <c r="T17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S17" t="s">
-        <v>95</v>
-      </c>
-      <c r="T17" t="str">
+        <v xml:space="preserve">modelTMB[[16]] = glmmTMB(abund.nind ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+      </c>
+      <c r="U17" t="s">
+        <v>451</v>
+      </c>
+      <c r="V17" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">abund.nind.glmm.16 = glmmTMB(abund.nind ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U17" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$abund.nind) </v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, abund.nind) </v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" t="s">
         <v>223</v>
-      </c>
-      <c r="C18" t="s">
-        <v>224</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -5471,46 +5623,49 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" t="s">
         <v>225</v>
-      </c>
-      <c r="J18" t="s">
-        <v>226</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O18" t="str">
+        <f t="shared" si="5"/>
+        <v>abund.end.glmm.17</v>
+      </c>
+      <c r="P18" t="str">
         <f t="shared" si="0"/>
-        <v>abund.end.glmm.17</v>
-      </c>
-      <c r="P18" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q18" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q18" t="str">
+      <c r="R18" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R18" t="str">
+      <c r="S18" t="s">
+        <v>93</v>
+      </c>
+      <c r="T18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S18" t="s">
-        <v>95</v>
-      </c>
-      <c r="T18" t="str">
+        <v xml:space="preserve">modelTMB[[17]] = glmmTMB(abund.end ~    (1 | ForestID), data= Results2,family = "poisson") </v>
+      </c>
+      <c r="U18" t="s">
+        <v>451</v>
+      </c>
+      <c r="V18" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">abund.end.glmm.17 = glmmTMB(abund.end ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U18" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$abund.end) </v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, abund.end) </v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5518,7 +5673,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -5547,35 +5702,38 @@
       <c r="L19" t="s">
         <v>60</v>
       </c>
-      <c r="O19" t="str">
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>prop.Talpha.glmm.18</v>
+      </c>
+      <c r="P19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prop.Talpha.glmm.18</v>
-      </c>
-      <c r="P19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q19" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q19" t="str">
+      <c r="R19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R19" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S19" t="s">
         <v>95</v>
       </c>
       <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[18]] = glmmTMB(prop.Talpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+      </c>
+      <c r="U19" t="s">
+        <v>451</v>
+      </c>
+      <c r="V19" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.Talpha.glmm.18 = glmmTMB(prop.Talpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U19" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.Talpha) </v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, prop.Talpha) </v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5583,19 +5741,19 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>229</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>230</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -5612,35 +5770,38 @@
       <c r="L20" t="s">
         <v>64</v>
       </c>
-      <c r="O20" t="str">
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>prop.Talpha.glmm.19</v>
+      </c>
+      <c r="P20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prop.Talpha.glmm.19</v>
-      </c>
-      <c r="P20" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q20" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q20" t="str">
+      <c r="R20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R20" t="str">
-        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S20" t="s">
         <v>95</v>
       </c>
       <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[19]] = glmmTMB(prop.Talpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+      </c>
+      <c r="U20" t="s">
+        <v>451</v>
+      </c>
+      <c r="V20" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.Talpha.glmm.19 = glmmTMB(prop.Talpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U20" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.Talpha) </v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, prop.Talpha) </v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5648,7 +5809,7 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -5666,46 +5827,49 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
+        <v>231</v>
+      </c>
+      <c r="J21" t="s">
         <v>232</v>
-      </c>
-      <c r="J21" t="s">
-        <v>233</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O21" t="str">
+        <f t="shared" si="5"/>
+        <v>prop.Falpha.glmm.20</v>
+      </c>
+      <c r="P21" t="str">
         <f t="shared" si="0"/>
-        <v>prop.Falpha.glmm.20</v>
-      </c>
-      <c r="P21" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q21" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q21" t="str">
+      <c r="R21" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R21" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S21" t="s">
         <v>95</v>
       </c>
       <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[20]] = glmmTMB(prop.Falpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+      </c>
+      <c r="U21" t="s">
+        <v>451</v>
+      </c>
+      <c r="V21" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.Falpha.glmm.20 = glmmTMB(prop.Falpha ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U21" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.Falpha) </v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, prop.Falpha) </v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5713,64 +5877,67 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
         <v>235</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>236</v>
       </c>
       <c r="H22">
         <v>4</v>
       </c>
       <c r="I22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J22" t="s">
         <v>237</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>238</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>239</v>
       </c>
-      <c r="L22" t="s">
-        <v>240</v>
-      </c>
       <c r="O22" t="str">
+        <f t="shared" si="5"/>
+        <v>prop.Falpha.glmm.21</v>
+      </c>
+      <c r="P22" t="str">
         <f t="shared" si="0"/>
-        <v>prop.Falpha.glmm.21</v>
-      </c>
-      <c r="P22" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q22" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q22" t="str">
+      <c r="R22" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R22" t="str">
-        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S22" t="s">
         <v>95</v>
       </c>
       <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[21]] = glmmTMB(prop.Falpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
+      </c>
+      <c r="U22" t="s">
+        <v>451</v>
+      </c>
+      <c r="V22" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.Falpha.glmm.21 = glmmTMB(prop.Falpha ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U22" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.Falpha) </v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, prop.Falpha) </v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5778,7 +5945,7 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -5807,43 +5974,46 @@
       <c r="L23" t="s">
         <v>69</v>
       </c>
-      <c r="O23" t="str">
+      <c r="O23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>prop.abund.glmm.22</v>
+      </c>
+      <c r="P23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>prop.abund.glmm.22</v>
-      </c>
-      <c r="P23" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q23" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q23" t="str">
+      <c r="R23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R23" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S23" t="s">
         <v>95</v>
       </c>
       <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[22]] = glmmTMB(prop.abund ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+      </c>
+      <c r="U23" t="s">
+        <v>451</v>
+      </c>
+      <c r="V23" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.abund.glmm.22 = glmmTMB(prop.abund ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U23" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.abund) </v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, prop.abund) </v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
         <v>242</v>
-      </c>
-      <c r="C24" t="s">
-        <v>243</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -5861,46 +6031,49 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" t="s">
         <v>244</v>
-      </c>
-      <c r="J24" t="s">
-        <v>245</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O24" t="str">
+        <f t="shared" si="5"/>
+        <v>prop.end.glmm.23</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="0"/>
-        <v>prop.end.glmm.23</v>
-      </c>
-      <c r="P24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q24" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q24" t="str">
+      <c r="R24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R24" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S24" t="s">
         <v>95</v>
       </c>
       <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[23]] = glmmTMB(prop.end ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
+      </c>
+      <c r="U24" t="s">
+        <v>451</v>
+      </c>
+      <c r="V24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">prop.end.glmm.23 = glmmTMB(prop.end ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U24" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$prop.end) </v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, prop.end) </v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5937,35 +6110,38 @@
       <c r="L25">
         <v>8</v>
       </c>
-      <c r="O25" t="str">
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>all.tax.btotal.glmm.24</v>
+      </c>
+      <c r="P25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>all.tax.btotal.glmm.24</v>
-      </c>
-      <c r="P25" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q25" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q25" t="str">
+      <c r="R25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R25" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S25" t="s">
         <v>95</v>
       </c>
       <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[24]] = glmmTMB(all.tax.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U25" t="s">
+        <v>452</v>
+      </c>
+      <c r="V25" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.tax.btotal.glmm.24 = glmmTMB(all.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.tax.btotal) </v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, all.tax.btotal) </v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5973,7 +6149,7 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -5991,46 +6167,49 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
         <v>248</v>
-      </c>
-      <c r="J26" t="s">
-        <v>249</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O26" t="str">
+        <f t="shared" si="5"/>
+        <v>all.tax.brich.glmm.25</v>
+      </c>
+      <c r="P26" t="str">
         <f t="shared" si="0"/>
-        <v>all.tax.brich.glmm.25</v>
-      </c>
-      <c r="P26" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q26" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q26" t="str">
+      <c r="R26" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R26" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S26" t="s">
         <v>95</v>
       </c>
       <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[25]] = glmmTMB(all.tax.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U26" t="s">
+        <v>452</v>
+      </c>
+      <c r="V26" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.tax.brich.glmm.25 = glmmTMB(all.tax.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U26" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.tax.brich) </v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, all.tax.brich) </v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6038,7 +6217,7 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -6056,46 +6235,49 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" t="s">
         <v>252</v>
-      </c>
-      <c r="J27" t="s">
-        <v>253</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
-      </c>
-      <c r="O27" t="str">
+        <v>253</v>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>all.tax.brepl.glmm.26</v>
+      </c>
+      <c r="P27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>all.tax.brepl.glmm.26</v>
-      </c>
-      <c r="P27" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q27" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q27" t="str">
+      <c r="R27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R27" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S27" t="s">
         <v>95</v>
       </c>
       <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[26]] = glmmTMB(all.tax.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U27" t="s">
+        <v>452</v>
+      </c>
+      <c r="V27" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.tax.brepl.glmm.26 = glmmTMB(all.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U27" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.tax.brepl) </v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, all.tax.brepl) </v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6103,7 +6285,7 @@
         <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -6121,46 +6303,49 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" t="s">
         <v>256</v>
-      </c>
-      <c r="J28" t="s">
-        <v>257</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O28" t="str">
+        <f t="shared" si="5"/>
+        <v>nat.tax.btotal.glmm.27</v>
+      </c>
+      <c r="P28" t="str">
         <f t="shared" si="0"/>
-        <v>nat.tax.btotal.glmm.27</v>
-      </c>
-      <c r="P28" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q28" t="str">
+      <c r="R28" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R28" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S28" t="s">
         <v>95</v>
       </c>
       <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[27]] = glmmTMB(nat.tax.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U28" t="s">
+        <v>452</v>
+      </c>
+      <c r="V28" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.tax.btotal.glmm.27 = glmmTMB(nat.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U28" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.tax.btotal) </v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nat.tax.btotal) </v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6168,7 +6353,7 @@
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -6186,46 +6371,49 @@
         <v>3</v>
       </c>
       <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
         <v>260</v>
-      </c>
-      <c r="J29" t="s">
-        <v>261</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
-      </c>
-      <c r="O29" t="str">
+        <v>261</v>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>nat.tax.brich.glmm.28</v>
+      </c>
+      <c r="P29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nat.tax.brich.glmm.28</v>
-      </c>
-      <c r="P29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q29" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q29" t="str">
+      <c r="R29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R29" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S29" t="s">
         <v>95</v>
       </c>
       <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[28]] = glmmTMB(nat.tax.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U29" t="s">
+        <v>452</v>
+      </c>
+      <c r="V29" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.tax.brich.glmm.28 = glmmTMB(nat.tax.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U29" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.tax.brich) </v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nat.tax.brich) </v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6233,7 +6421,7 @@
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -6251,46 +6439,49 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
         <v>264</v>
-      </c>
-      <c r="J30" t="s">
-        <v>265</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O30" t="str">
+        <f t="shared" si="5"/>
+        <v>nat.tax.brepl.glmm.29</v>
+      </c>
+      <c r="P30" t="str">
         <f t="shared" si="0"/>
-        <v>nat.tax.brepl.glmm.29</v>
-      </c>
-      <c r="P30" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q30" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q30" t="str">
+      <c r="R30" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R30" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S30" t="s">
         <v>95</v>
       </c>
       <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[29]] = glmmTMB(nat.tax.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U30" t="s">
+        <v>452</v>
+      </c>
+      <c r="V30" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.tax.brepl.glmm.29 = glmmTMB(nat.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.tax.brepl) </v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nat.tax.brepl) </v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6298,7 +6489,7 @@
         <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -6316,46 +6507,49 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
         <v>268</v>
-      </c>
-      <c r="J31" t="s">
-        <v>269</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>270</v>
-      </c>
-      <c r="O31" t="str">
+        <v>269</v>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>nind.tax.btotal.glmm.30</v>
+      </c>
+      <c r="P31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nind.tax.btotal.glmm.30</v>
-      </c>
-      <c r="P31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q31" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q31" t="str">
+      <c r="R31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R31" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S31" t="s">
         <v>95</v>
       </c>
       <c r="T31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[30]] = glmmTMB(nind.tax.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U31" t="s">
+        <v>452</v>
+      </c>
+      <c r="V31" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.tax.btotal.glmm.30 = glmmTMB(nind.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.tax.btotal) </v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nind.tax.btotal) </v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6363,13 +6557,13 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
         <v>271</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>272</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -6381,46 +6575,49 @@
         <v>4</v>
       </c>
       <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
         <v>273</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>274</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>275</v>
       </c>
-      <c r="L32" t="s">
-        <v>276</v>
-      </c>
-      <c r="O32" t="str">
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>nind.tax.btotal.glmm.31</v>
+      </c>
+      <c r="P32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nind.tax.btotal.glmm.31</v>
-      </c>
-      <c r="P32" t="str">
+        <v>Dist_edge_std +</v>
+      </c>
+      <c r="Q32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
-      </c>
-      <c r="Q32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R32" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S32" t="s">
         <v>95</v>
       </c>
       <c r="T32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[31]] = glmmTMB(nind.tax.btotal ~ Dist_edge_std +  (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U32" t="s">
+        <v>452</v>
+      </c>
+      <c r="V32" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.tax.btotal.glmm.31 = glmmTMB(nind.tax.btotal ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.tax.btotal) </v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nind.tax.btotal) </v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6428,13 +6625,13 @@
         <v>77</v>
       </c>
       <c r="C33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
         <v>277</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>278</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -6446,46 +6643,49 @@
         <v>4</v>
       </c>
       <c r="I33" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" t="s">
         <v>279</v>
-      </c>
-      <c r="J33" t="s">
-        <v>280</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O33" t="str">
+        <f t="shared" si="5"/>
+        <v>nind.tax.brich.glmm.32</v>
+      </c>
+      <c r="P33" t="str">
         <f t="shared" si="0"/>
-        <v>nind.tax.brich.glmm.32</v>
-      </c>
-      <c r="P33" t="str">
+        <v>Dist_edge_std +</v>
+      </c>
+      <c r="Q33" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
-      </c>
-      <c r="Q33" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R33" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R33" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S33" t="s">
         <v>95</v>
       </c>
       <c r="T33" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[32]] = glmmTMB(nind.tax.brich ~ Dist_edge_std +  (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U33" t="s">
+        <v>452</v>
+      </c>
+      <c r="V33" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.tax.brich.glmm.32 = glmmTMB(nind.tax.brich ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U33" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.tax.brich) </v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nind.tax.brich) </v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6493,7 +6693,7 @@
         <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -6511,54 +6711,57 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
         <v>283</v>
-      </c>
-      <c r="J34" t="s">
-        <v>284</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>285</v>
-      </c>
-      <c r="O34" t="str">
+        <v>284</v>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>nind.tax.brepl.glmm.33</v>
+      </c>
+      <c r="P34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nind.tax.brepl.glmm.33</v>
-      </c>
-      <c r="P34" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q34" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q34" t="str">
+      <c r="R34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R34" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S34" t="s">
         <v>95</v>
       </c>
       <c r="T34" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[33]] = glmmTMB(nind.tax.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U34" t="s">
+        <v>452</v>
+      </c>
+      <c r="V34" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.tax.brepl.glmm.33 = glmmTMB(nind.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U34" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.tax.brepl) </v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nind.tax.brepl) </v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" t="s">
         <v>286</v>
-      </c>
-      <c r="C35" t="s">
-        <v>287</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -6579,116 +6782,122 @@
         <v>0.92152777777777783</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O35" t="str">
+        <f t="shared" si="5"/>
+        <v>end.tax.btotal.glmm.34</v>
+      </c>
+      <c r="P35" t="str">
         <f t="shared" si="0"/>
-        <v>end.tax.btotal.glmm.34</v>
-      </c>
-      <c r="P35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q35" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q35" t="str">
+      <c r="R35" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R35" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S35" t="s">
         <v>95</v>
       </c>
       <c r="T35" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[34]] = glmmTMB(end.tax.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U35" t="s">
+        <v>452</v>
+      </c>
+      <c r="V35" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">end.tax.btotal.glmm.34 = glmmTMB(end.tax.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U35" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$end.tax.btotal) </v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, end.tax.btotal) </v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
         <v>290</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>291</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
       <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
         <v>292</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>293</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>294</v>
       </c>
-      <c r="L36" t="s">
-        <v>295</v>
-      </c>
       <c r="O36" t="str">
+        <f t="shared" si="5"/>
+        <v>end.tax.btotal.glmm.35</v>
+      </c>
+      <c r="P36" t="str">
         <f t="shared" si="0"/>
-        <v>end.tax.btotal.glmm.35</v>
-      </c>
-      <c r="P36" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q36" t="str">
+      <c r="R36" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R36" t="str">
-        <f t="shared" si="3"/>
         <v>Dist_trail_std +</v>
       </c>
       <c r="S36" t="s">
         <v>95</v>
       </c>
       <c r="T36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[35]] = glmmTMB(end.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U36" t="s">
+        <v>452</v>
+      </c>
+      <c r="V36" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">end.tax.btotal.glmm.35 = glmmTMB(end.tax.btotal ~   Dist_trail_std +(1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U36" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$end.tax.btotal) </v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, end.tax.btotal) </v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" t="s">
         <v>296</v>
-      </c>
-      <c r="C37" t="s">
-        <v>297</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -6706,54 +6915,57 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
         <v>298</v>
-      </c>
-      <c r="J37" t="s">
-        <v>299</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
-      </c>
-      <c r="O37" t="str">
+        <v>299</v>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>end.tax.brich.glmm.36</v>
+      </c>
+      <c r="P37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>end.tax.brich.glmm.36</v>
-      </c>
-      <c r="P37" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q37" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q37" t="str">
+      <c r="R37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R37" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S37" t="s">
         <v>95</v>
       </c>
       <c r="T37" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[36]] = glmmTMB(end.tax.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U37" t="s">
+        <v>452</v>
+      </c>
+      <c r="V37" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">end.tax.brich.glmm.36 = glmmTMB(end.tax.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U37" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$end.tax.brich) </v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, end.tax.brich) </v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" t="s">
         <v>301</v>
-      </c>
-      <c r="C38" t="s">
-        <v>302</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -6771,46 +6983,49 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
+        <v>302</v>
+      </c>
+      <c r="J38" t="s">
         <v>303</v>
-      </c>
-      <c r="J38" t="s">
-        <v>304</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O38" t="str">
+        <f t="shared" si="5"/>
+        <v>end.tax.brepl.glmm.37</v>
+      </c>
+      <c r="P38" t="str">
         <f t="shared" si="0"/>
-        <v>end.tax.brepl.glmm.37</v>
-      </c>
-      <c r="P38" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q38" t="str">
+      <c r="R38" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R38" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S38" t="s">
         <v>95</v>
       </c>
       <c r="T38" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[37]] = glmmTMB(end.tax.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U38" t="s">
+        <v>452</v>
+      </c>
+      <c r="V38" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">end.tax.brepl.glmm.37 = glmmTMB(end.tax.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U38" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$end.tax.brepl) </v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, end.tax.brepl) </v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6818,7 +7033,7 @@
         <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -6836,46 +7051,49 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
         <v>307</v>
-      </c>
-      <c r="J39" t="s">
-        <v>308</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
-      </c>
-      <c r="O39" t="str">
+        <v>308</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>all.func.btotal.glmm.38</v>
+      </c>
+      <c r="P39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>all.func.btotal.glmm.38</v>
-      </c>
-      <c r="P39" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q39" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q39" t="str">
+      <c r="R39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R39" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S39" t="s">
         <v>95</v>
       </c>
       <c r="T39" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[38]] = glmmTMB(all.func.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U39" t="s">
+        <v>452</v>
+      </c>
+      <c r="V39" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.func.btotal.glmm.38 = glmmTMB(all.func.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U39" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.func.btotal) </v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, all.func.btotal) </v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6883,13 +7101,13 @@
         <v>79</v>
       </c>
       <c r="C40" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
         <v>310</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>311</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -6901,46 +7119,49 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
+        <v>311</v>
+      </c>
+      <c r="J40" t="s">
         <v>312</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>313</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>314</v>
       </c>
-      <c r="L40" t="s">
-        <v>315</v>
-      </c>
-      <c r="O40" t="str">
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>all.func.btotal.glmm.39</v>
+      </c>
+      <c r="P40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>all.func.btotal.glmm.39</v>
-      </c>
-      <c r="P40" t="str">
+        <v>Dist_edge_std +</v>
+      </c>
+      <c r="Q40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
-      </c>
-      <c r="Q40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S40" t="s">
         <v>95</v>
       </c>
       <c r="T40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[39]] = glmmTMB(all.func.btotal ~ Dist_edge_std +  (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U40" t="s">
+        <v>452</v>
+      </c>
+      <c r="V40" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.func.btotal.glmm.39 = glmmTMB(all.func.btotal ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U40" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.func.btotal) </v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, all.func.btotal) </v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6948,7 +7169,7 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -6966,46 +7187,49 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
+        <v>316</v>
+      </c>
+      <c r="J41" t="s">
         <v>317</v>
-      </c>
-      <c r="J41" t="s">
-        <v>318</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O41" t="str">
+        <f t="shared" si="5"/>
+        <v>all.func.brich.glmm.40</v>
+      </c>
+      <c r="P41" t="str">
         <f t="shared" si="0"/>
-        <v>all.func.brich.glmm.40</v>
-      </c>
-      <c r="P41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q41" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q41" t="str">
+      <c r="R41" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R41" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S41" t="s">
         <v>95</v>
       </c>
       <c r="T41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[40]] = glmmTMB(all.func.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U41" t="s">
+        <v>452</v>
+      </c>
+      <c r="V41" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.func.brich.glmm.40 = glmmTMB(all.func.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U41" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.func.brich) </v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, all.func.brich) </v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7013,7 +7237,7 @@
         <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -7031,46 +7255,49 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
+        <v>320</v>
+      </c>
+      <c r="J42" t="s">
         <v>321</v>
-      </c>
-      <c r="J42" t="s">
-        <v>322</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>323</v>
-      </c>
-      <c r="O42" t="str">
+        <v>322</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>all.func.brepl.glmm.41</v>
+      </c>
+      <c r="P42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>all.func.brepl.glmm.41</v>
-      </c>
-      <c r="P42" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q42" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q42" t="str">
+      <c r="R42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R42" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S42" t="s">
         <v>95</v>
       </c>
       <c r="T42" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[41]] = glmmTMB(all.func.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U42" t="s">
+        <v>452</v>
+      </c>
+      <c r="V42" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">all.func.brepl.glmm.41 = glmmTMB(all.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U42" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$all.func.brepl) </v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, all.func.brepl) </v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7078,7 +7305,7 @@
         <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -7096,46 +7323,49 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
+        <v>324</v>
+      </c>
+      <c r="J43" t="s">
         <v>325</v>
-      </c>
-      <c r="J43" t="s">
-        <v>326</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O43" t="str">
+        <f t="shared" si="5"/>
+        <v>nat.func.btotal.glmm.42</v>
+      </c>
+      <c r="P43" t="str">
         <f t="shared" si="0"/>
-        <v>nat.func.btotal.glmm.42</v>
-      </c>
-      <c r="P43" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q43" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q43" t="str">
+      <c r="R43" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R43" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S43" t="s">
         <v>95</v>
       </c>
       <c r="T43" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[42]] = glmmTMB(nat.func.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U43" t="s">
+        <v>452</v>
+      </c>
+      <c r="V43" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.func.btotal.glmm.42 = glmmTMB(nat.func.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U43" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.func.btotal) </v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nat.func.btotal) </v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7143,16 +7373,16 @@
         <v>82</v>
       </c>
       <c r="C44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
         <v>328</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
-        <v>329</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -7161,46 +7391,49 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
+        <v>329</v>
+      </c>
+      <c r="J44" t="s">
         <v>330</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>331</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>332</v>
       </c>
-      <c r="L44" t="s">
-        <v>333</v>
-      </c>
       <c r="O44" t="str">
+        <f t="shared" si="5"/>
+        <v>nat.func.btotal.glmm.43</v>
+      </c>
+      <c r="P44" t="str">
         <f t="shared" si="0"/>
-        <v>nat.func.btotal.glmm.43</v>
-      </c>
-      <c r="P44" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q44" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q44" t="str">
+        <v>Dist_trail_beginning_std +</v>
+      </c>
+      <c r="R44" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_beginning_std +</v>
-      </c>
-      <c r="R44" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S44" t="s">
         <v>95</v>
       </c>
       <c r="T44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[43]] = glmmTMB(nat.func.btotal ~  Dist_trail_beginning_std + (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U44" t="s">
+        <v>452</v>
+      </c>
+      <c r="V44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.func.btotal.glmm.43 = glmmTMB(nat.func.btotal ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U44" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.func.btotal) </v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nat.func.btotal) </v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7208,7 +7441,7 @@
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -7226,46 +7459,49 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
+        <v>334</v>
+      </c>
+      <c r="J45" t="s">
         <v>335</v>
-      </c>
-      <c r="J45" t="s">
-        <v>336</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>337</v>
-      </c>
-      <c r="O45" t="str">
+        <v>336</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>nat.func.brich.glmm.44</v>
+      </c>
+      <c r="P45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nat.func.brich.glmm.44</v>
-      </c>
-      <c r="P45" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q45" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q45" t="str">
+      <c r="R45" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R45" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S45" t="s">
         <v>95</v>
       </c>
       <c r="T45" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[44]] = glmmTMB(nat.func.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U45" t="s">
+        <v>452</v>
+      </c>
+      <c r="V45" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.func.brich.glmm.44 = glmmTMB(nat.func.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U45" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.func.brich) </v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nat.func.brich) </v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7273,7 +7509,7 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -7291,46 +7527,49 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
+        <v>338</v>
+      </c>
+      <c r="J46" t="s">
         <v>339</v>
-      </c>
-      <c r="J46" t="s">
-        <v>340</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O46" t="str">
+        <f t="shared" si="5"/>
+        <v>nat.func.brepl.glmm.45</v>
+      </c>
+      <c r="P46" t="str">
         <f t="shared" si="0"/>
-        <v>nat.func.brepl.glmm.45</v>
-      </c>
-      <c r="P46" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q46" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q46" t="str">
+      <c r="R46" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R46" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S46" t="s">
         <v>95</v>
       </c>
       <c r="T46" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[45]] = glmmTMB(nat.func.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U46" t="s">
+        <v>452</v>
+      </c>
+      <c r="V46" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nat.func.brepl.glmm.45 = glmmTMB(nat.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U46" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nat.func.brepl) </v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nat.func.brepl) </v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7338,13 +7577,13 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
         <v>342</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>343</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -7356,46 +7595,49 @@
         <v>4</v>
       </c>
       <c r="I47" t="s">
+        <v>343</v>
+      </c>
+      <c r="J47" t="s">
         <v>344</v>
-      </c>
-      <c r="J47" t="s">
-        <v>345</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>346</v>
-      </c>
-      <c r="O47" t="str">
+        <v>345</v>
+      </c>
+      <c r="O47" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>nind.func.btotal.glmm.46</v>
+      </c>
+      <c r="P47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nind.func.btotal.glmm.46</v>
-      </c>
-      <c r="P47" t="str">
+        <v>Dist_edge_std +</v>
+      </c>
+      <c r="Q47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
-      </c>
-      <c r="Q47" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R47" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R47" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S47" t="s">
         <v>95</v>
       </c>
       <c r="T47" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[46]] = glmmTMB(nind.func.btotal ~ Dist_edge_std +  (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U47" t="s">
+        <v>452</v>
+      </c>
+      <c r="V47" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.func.btotal.glmm.46 = glmmTMB(nind.func.btotal ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U47" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.func.btotal) </v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nind.func.btotal) </v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7403,7 +7645,7 @@
         <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -7421,46 +7663,49 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
+        <v>347</v>
+      </c>
+      <c r="J48" t="s">
         <v>348</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>349</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>350</v>
       </c>
-      <c r="L48" t="s">
-        <v>351</v>
-      </c>
-      <c r="O48" t="str">
+      <c r="O48" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>nind.func.btotal.glmm.47</v>
+      </c>
+      <c r="P48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nind.func.btotal.glmm.47</v>
-      </c>
-      <c r="P48" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q48" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q48" t="str">
+      <c r="R48" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R48" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S48" t="s">
         <v>95</v>
       </c>
       <c r="T48" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[47]] = glmmTMB(nind.func.btotal ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U48" t="s">
+        <v>452</v>
+      </c>
+      <c r="V48" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.func.btotal.glmm.47 = glmmTMB(nind.func.btotal ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U48" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.func.btotal) </v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nind.func.btotal) </v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7468,13 +7713,13 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
         <v>352</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>353</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -7486,46 +7731,49 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
+        <v>353</v>
+      </c>
+      <c r="J49" t="s">
         <v>354</v>
-      </c>
-      <c r="J49" t="s">
-        <v>355</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O49" t="str">
+        <f t="shared" si="5"/>
+        <v>nind.func.brich.glmm.48</v>
+      </c>
+      <c r="P49" t="str">
         <f t="shared" si="0"/>
-        <v>nind.func.brich.glmm.48</v>
-      </c>
-      <c r="P49" t="str">
+        <v>Dist_edge_std +</v>
+      </c>
+      <c r="Q49" t="str">
         <f t="shared" si="1"/>
-        <v>Dist_edge_std +</v>
-      </c>
-      <c r="Q49" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R49" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R49" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S49" t="s">
         <v>95</v>
       </c>
       <c r="T49" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[48]] = glmmTMB(nind.func.brich ~ Dist_edge_std +  (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U49" t="s">
+        <v>452</v>
+      </c>
+      <c r="V49" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.func.brich.glmm.48 = glmmTMB(nind.func.brich ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U49" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.func.brich) </v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nind.func.brich) </v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7533,7 +7781,7 @@
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -7551,63 +7799,66 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
+        <v>357</v>
+      </c>
+      <c r="J50" t="s">
         <v>358</v>
-      </c>
-      <c r="J50" t="s">
-        <v>359</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>360</v>
-      </c>
-      <c r="O50" t="str">
+        <v>359</v>
+      </c>
+      <c r="O50" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>nind.func.brepl.glmm.49</v>
+      </c>
+      <c r="P50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>nind.func.brepl.glmm.49</v>
-      </c>
-      <c r="P50" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q50" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q50" t="str">
+      <c r="R50" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R50" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S50" t="s">
         <v>95</v>
       </c>
       <c r="T50" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[49]] = glmmTMB(nind.func.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U50" t="s">
+        <v>452</v>
+      </c>
+      <c r="V50" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">nind.func.brepl.glmm.49 = glmmTMB(nind.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U50" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$nind.func.brepl) </v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, nind.func.brepl) </v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>360</v>
+      </c>
+      <c r="C51" t="s">
         <v>361</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
         <v>362</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>363</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -7616,54 +7867,57 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
+        <v>363</v>
+      </c>
+      <c r="J51" t="s">
         <v>364</v>
-      </c>
-      <c r="J51" t="s">
-        <v>365</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O51" t="str">
+        <f t="shared" si="5"/>
+        <v>end.func.btotal.glmm.50</v>
+      </c>
+      <c r="P51" t="str">
         <f t="shared" si="0"/>
-        <v>end.func.btotal.glmm.50</v>
-      </c>
-      <c r="P51" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q51" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q51" t="str">
+        <v>Dist_trail_beginning_std +</v>
+      </c>
+      <c r="R51" t="str">
         <f t="shared" si="2"/>
-        <v>Dist_trail_beginning_std +</v>
-      </c>
-      <c r="R51" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S51" t="s">
         <v>95</v>
       </c>
       <c r="T51" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[50]] = glmmTMB(end.func.btotal ~  Dist_trail_beginning_std + (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U51" t="s">
+        <v>452</v>
+      </c>
+      <c r="V51" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">end.func.btotal.glmm.50 = glmmTMB(end.func.btotal ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U51" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$end.func.btotal) </v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, end.func.btotal) </v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>366</v>
+      </c>
+      <c r="C52" t="s">
         <v>367</v>
-      </c>
-      <c r="C52" t="s">
-        <v>368</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -7681,63 +7935,66 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
+        <v>368</v>
+      </c>
+      <c r="J52" t="s">
         <v>369</v>
-      </c>
-      <c r="J52" t="s">
-        <v>370</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>371</v>
-      </c>
-      <c r="O52" t="str">
+        <v>370</v>
+      </c>
+      <c r="O52" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>end.func.brich.glmm.51</v>
+      </c>
+      <c r="P52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>end.func.brich.glmm.51</v>
-      </c>
-      <c r="P52" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q52" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q52" t="str">
+      <c r="R52" s="1" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R52" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S52" t="s">
         <v>95</v>
       </c>
       <c r="T52" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[51]] = glmmTMB(end.func.brich ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U52" t="s">
+        <v>452</v>
+      </c>
+      <c r="V52" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">end.func.brich.glmm.51 = glmmTMB(end.func.brich ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U52" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">hist(Results2$end.func.brich) </v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, end.func.brich) </v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C53" t="s">
+        <v>371</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
         <v>372</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="s">
-        <v>373</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -7746,30 +8003,30 @@
         <v>4</v>
       </c>
       <c r="I53" t="s">
+        <v>373</v>
+      </c>
+      <c r="J53" t="s">
         <v>374</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>375</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>376</v>
       </c>
-      <c r="L53" t="s">
-        <v>377</v>
-      </c>
-      <c r="O53" t="str">
+      <c r="O53" s="1" t="str">
         <f t="shared" ref="O53:O55" si="6" xml:space="preserve"> CONCATENATE(B53, ".glmm.",A53)</f>
         <v>end.func.brich.glmm.52</v>
       </c>
-      <c r="P53" t="str">
+      <c r="P53" s="1" t="str">
         <f t="shared" ref="P53:P55" si="7">IF(E53="NA"," ",$N$9)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q53" t="str">
+      <c r="Q53" s="1" t="str">
         <f t="shared" ref="Q53:Q55" si="8">IF(F53="NA"," ",$N$10)</f>
         <v>Dist_trail_beginning_std +</v>
       </c>
-      <c r="R53" t="str">
+      <c r="R53" s="1" t="str">
         <f t="shared" ref="R53:R55" si="9">IF(G53="NA"," ",$N$11)</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -7777,23 +8034,26 @@
         <v>95</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" ref="T53:T55" si="10">CONCATENATE(O53,$N$3,$N$2,B53,$N$4,P53,Q53,R53,$N$6,$N$7,S53,$N$8)</f>
-        <v xml:space="preserve">end.func.brich.glmm.52 = glmmTMB(end.func.brich ~  Dist_trail_beginning_std + (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U53" t="str">
-        <f t="shared" ref="U53:U55" si="11">CONCATENATE($N$12,$N$13,B53,$N$8)</f>
-        <v xml:space="preserve">hist(Results2$end.func.brich) </v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[52]] = glmmTMB(end.func.brich ~  Dist_trail_beginning_std + (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U53" t="s">
+        <v>452</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" ref="V53:V55" si="10">CONCATENATE($N$12,$N$13,B53,$N$8)</f>
+        <v xml:space="preserve">hist(Results2, end.func.brich) </v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>377</v>
+      </c>
+      <c r="C54" t="s">
         <v>378</v>
-      </c>
-      <c r="C54" t="s">
-        <v>379</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -7811,16 +8071,16 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
+        <v>379</v>
+      </c>
+      <c r="J54" t="s">
         <v>380</v>
-      </c>
-      <c r="J54" t="s">
-        <v>381</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="6"/>
@@ -7842,29 +8102,32 @@
         <v>95</v>
       </c>
       <c r="T54" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[53]] = glmmTMB(end.func.brepl ~    (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U54" t="s">
+        <v>452</v>
+      </c>
+      <c r="V54" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">end.func.brepl.glmm.53 = glmmTMB(end.func.brepl ~    (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U54" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">hist(Results2$end.func.brepl) </v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+        <v xml:space="preserve">hist(Results2, end.func.brepl) </v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C55" t="s">
+        <v>382</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
         <v>383</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
-        <v>384</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -7876,16 +8139,16 @@
         <v>4</v>
       </c>
       <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" t="s">
         <v>385</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>386</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>387</v>
-      </c>
-      <c r="L55" t="s">
-        <v>388</v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="6"/>
@@ -7907,12 +8170,25 @@
         <v>95</v>
       </c>
       <c r="T55" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">modelTMB[[54]] = glmmTMB(end.func.brepl ~ Dist_edge_std +  (1 | ForestID), data= withoutcontrols,family = "beta_family") </v>
+      </c>
+      <c r="U55" t="s">
+        <v>452</v>
+      </c>
+      <c r="V55" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">end.func.brepl.glmm.54 = glmmTMB(end.func.brepl ~ Dist_edge_std +  (1 | ForestID), data= Results2,family = "beta_family") </v>
-      </c>
-      <c r="U55" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">hist(Results2$end.func.brepl) </v>
+        <v xml:space="preserve">hist(Results2, end.func.brepl) </v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T61" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -8359,7 +8635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0975F276-E0E1-8F42-9DEF-F85A039F1EB5}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T18" sqref="T2:T18"/>
     </sheetView>
   </sheetViews>
@@ -8444,25 +8720,25 @@
         <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q2" t="s">
         <v>144</v>
       </c>
       <c r="R2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S2" t="s">
         <v>93</v>
       </c>
       <c r="T2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -8506,13 +8782,13 @@
         <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R3" t="s">
         <v>145</v>
@@ -8521,10 +8797,10 @@
         <v>93</v>
       </c>
       <c r="T3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -8568,25 +8844,25 @@
         <v>92</v>
       </c>
       <c r="O4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P4" t="s">
         <v>143</v>
       </c>
       <c r="Q4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S4" t="s">
         <v>93</v>
       </c>
       <c r="T4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -8630,25 +8906,25 @@
         <v>144</v>
       </c>
       <c r="O5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q5" t="s">
         <v>144</v>
       </c>
       <c r="R5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S5" t="s">
         <v>94</v>
       </c>
       <c r="T5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -8659,55 +8935,55 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>191</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>192</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" t="s">
         <v>193</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>194</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>195</v>
       </c>
-      <c r="L6" t="s">
-        <v>196</v>
-      </c>
       <c r="O6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R6" t="s">
         <v>145</v>
       </c>
       <c r="S6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -8718,19 +8994,19 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>229</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>230</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -8748,13 +9024,13 @@
         <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R7" t="s">
         <v>145</v>
@@ -8763,10 +9039,10 @@
         <v>95</v>
       </c>
       <c r="T7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -8777,43 +9053,43 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>235</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>236</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" t="s">
         <v>237</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>238</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>239</v>
       </c>
-      <c r="L8" t="s">
-        <v>240</v>
-      </c>
       <c r="O8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R8" t="s">
         <v>145</v>
@@ -8822,10 +9098,10 @@
         <v>95</v>
       </c>
       <c r="T8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -8836,13 +9112,13 @@
         <v>76</v>
       </c>
       <c r="C9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>271</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>272</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -8854,37 +9130,37 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9" t="s">
         <v>273</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>274</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>275</v>
       </c>
-      <c r="L9" t="s">
-        <v>276</v>
-      </c>
       <c r="O9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P9" t="s">
         <v>143</v>
       </c>
       <c r="Q9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S9" t="s">
         <v>95</v>
       </c>
       <c r="T9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="U9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -8895,13 +9171,13 @@
         <v>77</v>
       </c>
       <c r="C10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>277</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>278</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -8913,37 +9189,37 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" t="s">
         <v>279</v>
-      </c>
-      <c r="J10" t="s">
-        <v>280</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P10" t="s">
         <v>143</v>
       </c>
       <c r="Q10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S10" t="s">
         <v>95</v>
       </c>
       <c r="T10" t="s">
+        <v>412</v>
+      </c>
+      <c r="U10" t="s">
         <v>413</v>
-      </c>
-      <c r="U10" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -8951,46 +9227,46 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>290</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>291</v>
       </c>
       <c r="H11">
         <v>4</v>
       </c>
       <c r="I11" t="s">
+        <v>291</v>
+      </c>
+      <c r="J11" t="s">
         <v>292</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>293</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>294</v>
       </c>
-      <c r="L11" t="s">
-        <v>295</v>
-      </c>
       <c r="O11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R11" t="s">
         <v>145</v>
@@ -8999,10 +9275,10 @@
         <v>95</v>
       </c>
       <c r="T11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -9013,13 +9289,13 @@
         <v>79</v>
       </c>
       <c r="C12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>310</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>311</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -9031,37 +9307,37 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J12" t="s">
         <v>312</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>313</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>314</v>
       </c>
-      <c r="L12" t="s">
-        <v>315</v>
-      </c>
       <c r="O12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P12" t="s">
         <v>143</v>
       </c>
       <c r="Q12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S12" t="s">
         <v>95</v>
       </c>
       <c r="T12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -9072,16 +9348,16 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>328</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>329</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -9090,37 +9366,37 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
+        <v>329</v>
+      </c>
+      <c r="J13" t="s">
         <v>330</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>331</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>332</v>
       </c>
-      <c r="L13" t="s">
-        <v>333</v>
-      </c>
       <c r="O13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q13" t="s">
         <v>144</v>
       </c>
       <c r="R13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S13" t="s">
         <v>95</v>
       </c>
       <c r="T13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -9131,13 +9407,13 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>342</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>343</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -9149,37 +9425,37 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
+        <v>343</v>
+      </c>
+      <c r="J14" t="s">
         <v>344</v>
-      </c>
-      <c r="J14" t="s">
-        <v>345</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P14" t="s">
         <v>143</v>
       </c>
       <c r="Q14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S14" t="s">
         <v>95</v>
       </c>
       <c r="T14" t="s">
+        <v>424</v>
+      </c>
+      <c r="U14" t="s">
         <v>425</v>
-      </c>
-      <c r="U14" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -9190,13 +9466,13 @@
         <v>86</v>
       </c>
       <c r="C15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>352</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>353</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -9208,37 +9484,37 @@
         <v>4</v>
       </c>
       <c r="I15" t="s">
+        <v>353</v>
+      </c>
+      <c r="J15" t="s">
         <v>354</v>
-      </c>
-      <c r="J15" t="s">
-        <v>355</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P15" t="s">
         <v>143</v>
       </c>
       <c r="Q15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S15" t="s">
         <v>95</v>
       </c>
       <c r="T15" t="s">
+        <v>427</v>
+      </c>
+      <c r="U15" t="s">
         <v>428</v>
-      </c>
-      <c r="U15" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -9246,19 +9522,19 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" t="s">
         <v>361</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>362</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>363</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -9267,37 +9543,37 @@
         <v>4</v>
       </c>
       <c r="I16" t="s">
+        <v>363</v>
+      </c>
+      <c r="J16" t="s">
         <v>364</v>
-      </c>
-      <c r="J16" t="s">
-        <v>365</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q16" t="s">
         <v>144</v>
       </c>
       <c r="R16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S16" t="s">
         <v>95</v>
       </c>
       <c r="T16" t="s">
+        <v>430</v>
+      </c>
+      <c r="U16" t="s">
         <v>431</v>
-      </c>
-      <c r="U16" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -9305,19 +9581,19 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>372</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>373</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -9326,37 +9602,37 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
+        <v>373</v>
+      </c>
+      <c r="J17" t="s">
         <v>374</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>375</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>376</v>
       </c>
-      <c r="L17" t="s">
-        <v>377</v>
-      </c>
       <c r="O17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q17" t="s">
         <v>144</v>
       </c>
       <c r="R17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S17" t="s">
         <v>95</v>
       </c>
       <c r="T17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -9364,16 +9640,16 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>383</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>384</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -9385,37 +9661,37 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
+        <v>384</v>
+      </c>
+      <c r="J18" t="s">
         <v>385</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>386</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>387</v>
       </c>
-      <c r="L18" t="s">
-        <v>388</v>
-      </c>
       <c r="O18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P18" t="s">
         <v>143</v>
       </c>
       <c r="Q18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S18" t="s">
         <v>95</v>
       </c>
       <c r="T18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
